--- a/Drift_Velocity_Analysis.xlsx
+++ b/Drift_Velocity_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29E963C-4C85-43D5-BCB5-36345762D215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EDEB45-ABAF-44AC-9C8C-1CA0F1217E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
-  <si>
-    <t>----</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
   <si>
     <t>Water</t>
   </si>
@@ -94,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,18 +124,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2331F3-7B3E-4707-B1EB-7A0675A5EC13}">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,57 +465,57 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -535,7 +530,7 @@
       <c r="D2" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F2">
@@ -549,28 +544,28 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0.26486950616821625</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <f>+F2*K2*J2/G2</f>
         <v>13.433988200317309</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <f>+(9.80665*J2^3*(E2-F2)*E2)^0.5/G2</f>
         <v>25916.409126683284</v>
       </c>
-      <c r="N2" s="3">
-        <f>(E2-F2)*9.80665*J2*J2/H2</f>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N33" si="1">(E2-F2)*9.80665*J2*J2/H2</f>
         <v>193.52974240539385</v>
       </c>
-      <c r="O2" s="7">
-        <f>G2/(E2-F2)/SQRT(9.80665*J2^3)</f>
+      <c r="O2" s="5">
+        <f t="shared" ref="O2:O33" si="2">G2/(E2-F2)/SQRT(9.80665*J2^3)</f>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P2">
@@ -578,16 +573,16 @@
         <v>0.43357965753141808</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">+COS(RADIANS(A3))</f>
+        <f t="shared" ref="B3:B66" si="3">+COS(RADIANS(A3))</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">+SIN(RADIANS(A3))</f>
+        <f t="shared" ref="C3:C66" si="4">+SIN(RADIANS(A3))</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -607,7 +602,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>5.0799999999999998E-2</v>
@@ -615,154 +610,153 @@
       <c r="K3">
         <v>0.35</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="3">+F3*K3*J3/G3</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L66" si="5">+F3*K3*J3/G3</f>
         <v>21.339472998440723</v>
       </c>
-      <c r="M3" s="8">
-        <f t="shared" ref="M3:M66" si="4">+(9.80665*J3^3*(E3-F3)*E3)^0.5/G3</f>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M66" si="6">+(9.80665*J3^3*(E3-F3)*E3)^0.5/G3</f>
         <v>35833.986900030846</v>
       </c>
-      <c r="N3" s="3">
-        <f>(E3-F3)*9.80665*J3*J3/H3</f>
+      <c r="N3" s="2">
+        <f t="shared" si="1"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O3" s="7">
-        <f>G3/(E3-F3)/SQRT(9.80665*J3^3)</f>
+      <c r="O3" s="5">
+        <f t="shared" si="2"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="5">K3/SQRT(9.80665*J3*(1-F3/E3))</f>
+        <f t="shared" ref="P3:P66" si="7">K3/SQRT(9.80665*J3*(1-F3/E3))</f>
         <v>0.4961769967043409</v>
       </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H4">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>4.7328929380444848E-2</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" si="3"/>
+      <c r="L4" s="2">
+        <f t="shared" si="5"/>
         <v>7.9976495273096099E-3</v>
       </c>
-      <c r="M4" s="8">
-        <f t="shared" si="4"/>
+      <c r="M4" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N4" s="3">
-        <f>(E4-F4)*9.80665*J4*J4/H4</f>
+      <c r="N4" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O4" s="7">
-        <f>G4/(E4-F4)/SQRT(9.80665*J4^3)</f>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.748341433962061E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.1486756737987788</v>
       </c>
       <c r="H5">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>9.1819282789571022E-2</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
+      <c r="L5" s="2">
+        <f t="shared" si="5"/>
         <v>2.7201922393622888E-2</v>
       </c>
-      <c r="M5" s="8">
-        <f t="shared" si="4"/>
+      <c r="M5" s="6">
+        <f t="shared" si="6"/>
         <v>134.27400814386371</v>
       </c>
-      <c r="N5" s="3">
-        <f>(E5-F5)*9.80665*J5*J5/H5</f>
+      <c r="N5" s="2">
+        <f t="shared" si="1"/>
         <v>390.59703433053056</v>
       </c>
-      <c r="O5" s="7">
-        <f>G5/(E5-F5)/SQRT(9.80665*J5^3)</f>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
         <v>7.4524813999467809E-3</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15031555485610265</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D6" s="1">
@@ -782,7 +776,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>5.0799999999999998E-2</v>
@@ -790,37 +784,37 @@
       <c r="K6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" si="3"/>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
         <v>0.13747388174379557</v>
       </c>
-      <c r="M6" s="8">
-        <f t="shared" si="4"/>
+      <c r="M6" s="6">
+        <f t="shared" si="6"/>
         <v>258.52854861933531</v>
       </c>
-      <c r="N6" s="3">
-        <f>(E6-F6)*9.80665*J6*J6/H6</f>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
         <v>747.97620965234785</v>
       </c>
-      <c r="O6" s="7">
-        <f>G6/(E6-F6)/SQRT(9.80665*J6^3)</f>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
         <v>3.8705061644355204E-3</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41822124793887655</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D7" s="1">
@@ -840,7 +834,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>5.0799999999999998E-2</v>
@@ -848,37 +842,37 @@
       <c r="K7">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="3"/>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
         <v>0.10812849109293278</v>
       </c>
-      <c r="M7" s="8">
-        <f t="shared" si="4"/>
+      <c r="M7" s="6">
+        <f t="shared" si="6"/>
         <v>222.11087243849741</v>
       </c>
-      <c r="N7" s="3">
-        <f>(E7-F7)*9.80665*J7*J7/H7</f>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
         <v>748.82562977071314</v>
       </c>
-      <c r="O7" s="7">
-        <f>G7/(E7-F7)/SQRT(9.80665*J7^3)</f>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
         <v>4.5051430985316703E-3</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37994524026595711</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D8" s="1">
@@ -898,7 +892,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>5.0799999999999998E-2</v>
@@ -906,37 +900,37 @@
       <c r="K8">
         <v>0.23499999999999999</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="3"/>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
         <v>8.1749209697730932E-2</v>
       </c>
-      <c r="M8" s="8">
-        <f t="shared" si="4"/>
+      <c r="M8" s="6">
+        <f t="shared" si="6"/>
         <v>190.23735751973956</v>
       </c>
-      <c r="N8" s="3">
-        <f>(E8-F8)*9.80665*J8*J8/H8</f>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
         <v>750.53277734914673</v>
       </c>
-      <c r="O8" s="7">
-        <f>G8/(E8-F8)/SQRT(9.80665*J8^3)</f>
+      <c r="O8" s="5">
+        <f t="shared" si="2"/>
         <v>5.2599844301193174E-3</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33316236147861122</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D9" s="1">
@@ -956,7 +950,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>5.0799999999999998E-2</v>
@@ -964,37 +958,37 @@
       <c r="K9">
         <v>0.21</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
         <v>6.0608690698961527E-2</v>
       </c>
-      <c r="M9" s="8">
-        <f t="shared" si="4"/>
+      <c r="M9" s="6">
+        <f t="shared" si="6"/>
         <v>156.52068967996152</v>
       </c>
-      <c r="N9" s="3">
-        <f>(E9-F9)*9.80665*J9*J9/H9</f>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
         <v>752.23818704677672</v>
       </c>
-      <c r="O9" s="7">
-        <f>G9/(E9-F9)/SQRT(9.80665*J9^3)</f>
+      <c r="O9" s="5">
+        <f t="shared" si="2"/>
         <v>6.3930905978188679E-3</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2977211669801732</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1014,7 +1008,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5.0799999999999998E-2</v>
@@ -1022,41 +1016,37 @@
       <c r="K10">
         <v>0.19500000000000001</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="3"/>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
         <v>5.6886831223871143E-2</v>
       </c>
-      <c r="M10" s="8">
-        <f t="shared" si="4"/>
+      <c r="M10" s="6">
+        <f t="shared" si="6"/>
         <v>157.05474680099599</v>
       </c>
-      <c r="N10" s="3">
-        <f>(E10-F10)*9.80665*J10*J10/H10</f>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
         <v>754.80125248914214</v>
       </c>
-      <c r="O10" s="7">
-        <f>G10/(E10-F10)/SQRT(9.80665*J10^3)</f>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
         <v>6.3713816916304575E-3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27645669236544318</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="AC10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D11" s="1">
@@ -1076,7 +1066,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5.0799999999999998E-2</v>
@@ -1084,41 +1074,37 @@
       <c r="K11">
         <v>0.17699999999999999</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" si="3"/>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
         <v>3.5149976887087299E-2</v>
       </c>
-      <c r="M11" s="8">
-        <f t="shared" si="4"/>
+      <c r="M11" s="6">
+        <f t="shared" si="6"/>
         <v>106.05257809173132</v>
       </c>
-      <c r="N11" s="3">
-        <f>(E11-F11)*9.80665*J11*J11/H11</f>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
         <v>755.64998095323244</v>
       </c>
-      <c r="O11" s="7">
-        <f>G11/(E11-F11)/SQRT(9.80665*J11^3)</f>
+      <c r="O11" s="5">
+        <f t="shared" si="2"/>
         <v>9.4355184090123122E-3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25093894581829068</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="AC11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12" s="1">
@@ -1138,7 +1124,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5.0799999999999998E-2</v>
@@ -1146,37 +1132,37 @@
       <c r="K12">
         <v>0.158</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" si="3"/>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
         <v>2.7512553202916068E-2</v>
       </c>
-      <c r="M12" s="8">
-        <f t="shared" si="4"/>
+      <c r="M12" s="6">
+        <f t="shared" si="6"/>
         <v>92.617682552465766</v>
       </c>
-      <c r="N12" s="3">
-        <f>(E12-F12)*9.80665*J12*J12/H12</f>
+      <c r="N12" s="2">
+        <f t="shared" si="1"/>
         <v>757.35943285994597</v>
       </c>
-      <c r="O12" s="7">
-        <f>G12/(E12-F12)/SQRT(9.80665*J12^3)</f>
+      <c r="O12" s="5">
+        <f t="shared" si="2"/>
         <v>1.0804240554573508E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22400259429767286</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D13" s="1">
@@ -1196,7 +1182,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5.0799999999999998E-2</v>
@@ -1204,37 +1190,37 @@
       <c r="K13">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" si="3"/>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
         <v>1.7808761007005562E-2</v>
       </c>
-      <c r="M13" s="8">
-        <f t="shared" si="4"/>
+      <c r="M13" s="6">
+        <f t="shared" si="6"/>
         <v>67.834745654792059</v>
       </c>
-      <c r="N13" s="3">
-        <f>(E13-F13)*9.80665*J13*J13/H13</f>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
         <v>759.06096443833314</v>
       </c>
-      <c r="O13" s="7">
-        <f>G13/(E13-F13)/SQRT(9.80665*J13^3)</f>
+      <c r="O13" s="5">
+        <f t="shared" si="2"/>
         <v>1.4751608336761063E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19564937574271099</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14" s="1">
@@ -1254,7 +1240,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5.0799999999999998E-2</v>
@@ -1262,37 +1248,37 @@
       <c r="K14">
         <v>0.123</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" si="3"/>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
         <v>1.2650676717314156E-2</v>
       </c>
-      <c r="M14" s="8">
-        <f t="shared" si="4"/>
+      <c r="M14" s="6">
+        <f t="shared" si="6"/>
         <v>53.656259059533042</v>
       </c>
-      <c r="N14" s="3">
-        <f>(E14-F14)*9.80665*J14*J14/H14</f>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
         <v>760.76666226541261</v>
       </c>
-      <c r="O14" s="7">
-        <f>G14/(E14-F14)/SQRT(9.80665*J14^3)</f>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
         <v>1.8649766482551223E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17438402840064451</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -1312,7 +1298,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5.0799999999999998E-2</v>
@@ -1320,37 +1306,37 @@
       <c r="K15">
         <v>0.106</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="3"/>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
         <v>9.4000514185954339E-3</v>
       </c>
-      <c r="M15" s="8">
-        <f t="shared" si="4"/>
+      <c r="M15" s="6">
+        <f t="shared" si="6"/>
         <v>46.031624940187186</v>
       </c>
-      <c r="N15" s="3">
-        <f>(E15-F15)*9.80665*J15*J15/H15</f>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
         <v>761.61819655784143</v>
       </c>
-      <c r="O15" s="7">
-        <f>G15/(E15-F15)/SQRT(9.80665*J15^3)</f>
+      <c r="O15" s="5">
+        <f t="shared" si="2"/>
         <v>2.1738969877136961E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.150282682359204</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D16">
@@ -1370,7 +1356,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0.15240000000000001</v>
@@ -1378,24 +1364,24 @@
       <c r="K16">
         <v>0.42</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" si="3"/>
+      <c r="L16" s="2">
+        <f t="shared" si="5"/>
         <v>0.13370003380068546</v>
       </c>
-      <c r="M16" s="8">
-        <f t="shared" si="4"/>
+      <c r="M16" s="6">
+        <f t="shared" si="6"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N16" s="3">
-        <f>(E16-F16)*9.80665*J16*J16/H16</f>
+      <c r="N16" s="2">
+        <f t="shared" si="1"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O16" s="7">
-        <f>G16/(E16-F16)/SQRT(9.80665*J16^3)</f>
+      <c r="O16" s="5">
+        <f t="shared" si="2"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.34378784752890262</v>
       </c>
     </row>
@@ -1404,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -1428,7 +1414,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0.15240000000000001</v>
@@ -1436,24 +1422,24 @@
       <c r="K17">
         <v>0.45500000000000002</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" si="3"/>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
         <v>0.21603360250399559</v>
       </c>
-      <c r="M17" s="8">
-        <f t="shared" si="4"/>
+      <c r="M17" s="6">
+        <f t="shared" si="6"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N17" s="3">
-        <f>(E17-F17)*9.80665*J17*J17/H17</f>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O17" s="7">
-        <f>G17/(E17-F17)/SQRT(9.80665*J17^3)</f>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37243290835801546</v>
       </c>
     </row>
@@ -1462,11 +1448,11 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D18">
@@ -1486,7 +1472,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0.15240000000000001</v>
@@ -1494,24 +1480,24 @@
       <c r="K18">
         <v>0.47599999999999998</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="3"/>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
         <v>0.32750328395733641</v>
       </c>
-      <c r="M18" s="8">
-        <f t="shared" si="4"/>
+      <c r="M18" s="6">
+        <f t="shared" si="6"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N18" s="3">
-        <f>(E18-F18)*9.80665*J18*J18/H18</f>
+      <c r="N18" s="2">
+        <f t="shared" si="1"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O18" s="7">
-        <f>G18/(E18-F18)/SQRT(9.80665*J18^3)</f>
+      <c r="O18" s="5">
+        <f t="shared" si="2"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38961815497333191</v>
       </c>
     </row>
@@ -1520,11 +1506,11 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -1544,7 +1530,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0.15240000000000001</v>
@@ -1552,24 +1538,24 @@
       <c r="K19">
         <v>0.501</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="3"/>
+      <c r="L19" s="2">
+        <f t="shared" si="5"/>
         <v>0.55769402360251275</v>
       </c>
-      <c r="M19" s="8">
-        <f t="shared" si="4"/>
+      <c r="M19" s="6">
+        <f t="shared" si="6"/>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N19" s="3">
-        <f>(E19-F19)*9.80665*J19*J19/H19</f>
+      <c r="N19" s="2">
+        <f t="shared" si="1"/>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O19" s="7">
-        <f>G19/(E19-F19)/SQRT(9.80665*J19^3)</f>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41007558846566727</v>
       </c>
     </row>
@@ -1578,17 +1564,17 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D20" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F20">
@@ -1602,32 +1588,32 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>0.26590428969072472</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" si="3"/>
+      <c r="L20" s="2">
+        <f t="shared" si="5"/>
         <v>13.486471665976936</v>
       </c>
-      <c r="M20" s="8">
-        <f t="shared" si="4"/>
+      <c r="M20" s="6">
+        <f t="shared" si="6"/>
         <v>25916.409126683284</v>
       </c>
-      <c r="N20" s="3">
-        <f>(E20-F20)*9.80665*J20*J20/H20</f>
+      <c r="N20" s="2">
+        <f t="shared" si="1"/>
         <v>193.52974240539385</v>
       </c>
-      <c r="O20" s="7">
-        <f>G20/(E20-F20)/SQRT(9.80665*J20^3)</f>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43527355235456711</v>
       </c>
     </row>
@@ -1636,17 +1622,17 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99862953475457383</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2335956242943835E-2</v>
       </c>
       <c r="D21" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F21">
@@ -1660,32 +1646,32 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>0.26873646322188366</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="3"/>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
         <v>13.630117442152757</v>
       </c>
-      <c r="M21" s="8">
-        <f t="shared" si="4"/>
+      <c r="M21" s="6">
+        <f t="shared" si="6"/>
         <v>25916.409126683284</v>
       </c>
-      <c r="N21" s="3">
-        <f>(E21-F21)*9.80665*J21*J21/H21</f>
+      <c r="N21" s="2">
+        <f t="shared" si="1"/>
         <v>193.52974240539385</v>
       </c>
-      <c r="O21" s="7">
-        <f>G21/(E21-F21)/SQRT(9.80665*J21^3)</f>
+      <c r="O21" s="5">
+        <f t="shared" si="2"/>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43990969506300542</v>
       </c>
     </row>
@@ -1694,17 +1680,17 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D22" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F22">
@@ -1718,32 +1704,32 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0.27922843363202576</v>
       </c>
-      <c r="L22" s="3">
-        <f t="shared" si="3"/>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
         <v>14.162262530226476</v>
       </c>
-      <c r="M22" s="8">
-        <f t="shared" si="4"/>
+      <c r="M22" s="6">
+        <f t="shared" si="6"/>
         <v>25916.409126683284</v>
       </c>
-      <c r="N22" s="3">
-        <f>(E22-F22)*9.80665*J22*J22/H22</f>
+      <c r="N22" s="2">
+        <f t="shared" si="1"/>
         <v>193.52974240539385</v>
       </c>
-      <c r="O22" s="7">
-        <f>G22/(E22-F22)/SQRT(9.80665*J22^3)</f>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45708458621249881</v>
       </c>
     </row>
@@ -1752,17 +1738,17 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99254615164132198</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12186934340514748</v>
       </c>
       <c r="D23" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F23">
@@ -1776,32 +1762,32 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0.28024972561076705</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="3"/>
+      <c r="L23" s="2">
+        <f t="shared" si="5"/>
         <v>14.214061714624759</v>
       </c>
-      <c r="M23" s="8">
-        <f t="shared" si="4"/>
+      <c r="M23" s="6">
+        <f t="shared" si="6"/>
         <v>25916.409126683284</v>
       </c>
-      <c r="N23" s="3">
-        <f>(E23-F23)*9.80665*J23*J23/H23</f>
+      <c r="N23" s="2">
+        <f t="shared" si="1"/>
         <v>193.52974240539385</v>
       </c>
-      <c r="O23" s="7">
-        <f>G23/(E23-F23)/SQRT(9.80665*J23^3)</f>
+      <c r="O23" s="5">
+        <f t="shared" si="2"/>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45875639597568468</v>
       </c>
     </row>
@@ -1810,17 +1796,17 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D24" s="1">
         <v>24.959835577777774</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>990.8958157964139</v>
       </c>
       <c r="F24">
@@ -1834,32 +1820,32 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>0.29059631440697326</v>
       </c>
-      <c r="L24" s="3">
-        <f t="shared" si="3"/>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
         <v>14.738833153257236</v>
       </c>
-      <c r="M24" s="8">
-        <f t="shared" si="4"/>
+      <c r="M24" s="6">
+        <f t="shared" si="6"/>
         <v>25916.409126683284</v>
       </c>
-      <c r="N24" s="3">
-        <f>(E24-F24)*9.80665*J24*J24/H24</f>
+      <c r="N24" s="2">
+        <f t="shared" si="1"/>
         <v>193.52974240539385</v>
       </c>
-      <c r="O24" s="7">
-        <f>G24/(E24-F24)/SQRT(9.80665*J24^3)</f>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
         <v>3.8608678296213685E-5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47569330385827208</v>
       </c>
     </row>
@@ -1868,56 +1854,56 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D25" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H25">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>0.13209137001373675</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="3"/>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
         <v>2.23208193546953E-2</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="4"/>
+      <c r="M25" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N25" s="3">
-        <f>(E25-F25)*9.80665*J25*J25/H25</f>
+      <c r="N25" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O25" s="7">
-        <f>G25/(E25-F25)/SQRT(9.80665*J25^3)</f>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21625019808056986</v>
       </c>
     </row>
@@ -1926,56 +1912,56 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99862953475457383</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2335956242943835E-2</v>
       </c>
       <c r="D26" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H26">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>0.17101540392786366</v>
       </c>
-      <c r="L26" s="3">
-        <f t="shared" si="3"/>
+      <c r="L26" s="2">
+        <f t="shared" si="5"/>
         <v>2.8898208395803041E-2</v>
       </c>
-      <c r="M26" s="8">
-        <f t="shared" si="4"/>
+      <c r="M26" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N26" s="3">
-        <f>(E26-F26)*9.80665*J26*J26/H26</f>
+      <c r="N26" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O26" s="7">
-        <f>G26/(E26-F26)/SQRT(9.80665*J26^3)</f>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27997374067952552</v>
       </c>
     </row>
@@ -1984,56 +1970,56 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D27" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H27">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>0.18318625860000007</v>
       </c>
-      <c r="L27" s="3">
-        <f t="shared" si="3"/>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
         <v>3.0954841228824265E-2</v>
       </c>
-      <c r="M27" s="8">
-        <f t="shared" si="4"/>
+      <c r="M27" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N27" s="3">
-        <f>(E27-F27)*9.80665*J27*J27/H27</f>
+      <c r="N27" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O27" s="7">
-        <f>G27/(E27-F27)/SQRT(9.80665*J27^3)</f>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29989896163366975</v>
       </c>
     </row>
@@ -2042,56 +2028,56 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99254615164132198</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12186934340514748</v>
       </c>
       <c r="D28" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H28">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>0.19329569794757637</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" si="3"/>
+      <c r="L28" s="2">
+        <f t="shared" si="5"/>
         <v>3.2663135793647331E-2</v>
       </c>
-      <c r="M28" s="8">
-        <f t="shared" si="4"/>
+      <c r="M28" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N28" s="3">
-        <f>(E28-F28)*9.80665*J28*J28/H28</f>
+      <c r="N28" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O28" s="7">
-        <f>G28/(E28-F28)/SQRT(9.80665*J28^3)</f>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3164493862463415</v>
       </c>
     </row>
@@ -2100,56 +2086,56 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D29" s="1">
         <v>21.455511807571778</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>854.35066040766503</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>1.1987462720586435</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>0.27028164728736614</v>
       </c>
       <c r="H29">
         <v>3.0679999999999999E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>0.20339291570397036</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" si="3"/>
+      <c r="L29" s="2">
+        <f t="shared" si="5"/>
         <v>3.4369365152174342E-2</v>
       </c>
-      <c r="M29" s="8">
-        <f t="shared" si="4"/>
+      <c r="M29" s="6">
+        <f t="shared" si="6"/>
         <v>73.563521128321199</v>
       </c>
-      <c r="N29" s="3">
-        <f>(E29-F29)*9.80665*J29*J29/H29</f>
+      <c r="N29" s="2">
+        <f t="shared" si="1"/>
         <v>395.86001898211276</v>
       </c>
-      <c r="O29" s="7">
-        <f>G29/(E29-F29)/SQRT(9.80665*J29^3)</f>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
         <v>1.3603240815522648E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33297980257600618</v>
       </c>
     </row>
@@ -2158,56 +2144,56 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D30" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>0.149354688792005</v>
       </c>
       <c r="H30">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>0.19604322253768508</v>
       </c>
-      <c r="L30" s="3">
-        <f t="shared" si="3"/>
+      <c r="L30" s="2">
+        <f t="shared" si="5"/>
         <v>5.781474148476079E-2</v>
       </c>
-      <c r="M30" s="8">
-        <f t="shared" si="4"/>
+      <c r="M30" s="6">
+        <f t="shared" si="6"/>
         <v>133.66355482989221</v>
       </c>
-      <c r="N30" s="3">
-        <f>(E30-F30)*9.80665*J30*J30/H30</f>
+      <c r="N30" s="2">
+        <f t="shared" si="1"/>
         <v>390.59703433053056</v>
       </c>
-      <c r="O30" s="7">
-        <f>G30/(E30-F30)/SQRT(9.80665*J30^3)</f>
+      <c r="O30" s="5">
+        <f t="shared" si="2"/>
         <v>7.486517543708617E-3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32093853138741352</v>
       </c>
     </row>
@@ -2216,56 +2202,56 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99862953475457383</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2335956242943835E-2</v>
       </c>
       <c r="D31" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>0.14939476715513661</v>
       </c>
       <c r="H31">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>0.21657981997703946</v>
       </c>
-      <c r="L31" s="3">
-        <f t="shared" si="3"/>
+      <c r="L31" s="2">
+        <f t="shared" si="5"/>
         <v>6.3854016359566904E-2</v>
       </c>
-      <c r="M31" s="8">
-        <f t="shared" si="4"/>
+      <c r="M31" s="6">
+        <f t="shared" si="6"/>
         <v>133.62769670319912</v>
       </c>
-      <c r="N31" s="3">
-        <f>(E31-F31)*9.80665*J31*J31/H31</f>
+      <c r="N31" s="2">
+        <f t="shared" si="1"/>
         <v>390.59703433053056</v>
       </c>
-      <c r="O31" s="7">
-        <f>G31/(E31-F31)/SQRT(9.80665*J31^3)</f>
+      <c r="O31" s="5">
+        <f t="shared" si="2"/>
         <v>7.488526502189498E-3</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.35455859402749762</v>
       </c>
     </row>
@@ -2274,56 +2260,56 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D32" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>0.14883504922730764</v>
       </c>
       <c r="H32">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>0.22300824711581094</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" si="3"/>
+      <c r="L32" s="2">
+        <f t="shared" si="5"/>
         <v>6.5996563977137962E-2</v>
       </c>
-      <c r="M32" s="8">
-        <f t="shared" si="4"/>
+      <c r="M32" s="6">
+        <f t="shared" si="6"/>
         <v>134.13022495771693</v>
       </c>
-      <c r="N32" s="3">
-        <f>(E32-F32)*9.80665*J32*J32/H32</f>
+      <c r="N32" s="2">
+        <f t="shared" si="1"/>
         <v>390.59703433053056</v>
       </c>
-      <c r="O32" s="7">
-        <f>G32/(E32-F32)/SQRT(9.80665*J32^3)</f>
+      <c r="O32" s="5">
+        <f t="shared" si="2"/>
         <v>7.4604702147029007E-3</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36508244656543332</v>
       </c>
     </row>
@@ -2332,56 +2318,56 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99254615164132198</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12186934340514748</v>
       </c>
       <c r="D33" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>0.14843706207294247</v>
       </c>
       <c r="H33">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>0.23178607057880582</v>
       </c>
-      <c r="L33" s="3">
-        <f t="shared" si="3"/>
+      <c r="L33" s="2">
+        <f t="shared" si="5"/>
         <v>6.8778167354461558E-2</v>
       </c>
-      <c r="M33" s="8">
-        <f t="shared" si="4"/>
+      <c r="M33" s="6">
+        <f t="shared" si="6"/>
         <v>134.48985284174935</v>
       </c>
-      <c r="N33" s="3">
-        <f>(E33-F33)*9.80665*J33*J33/H33</f>
+      <c r="N33" s="2">
+        <f t="shared" si="1"/>
         <v>390.59703433053056</v>
       </c>
-      <c r="O33" s="7">
-        <f>G33/(E33-F33)/SQRT(9.80665*J33^3)</f>
+      <c r="O33" s="5">
+        <f t="shared" si="2"/>
         <v>7.4405208054314246E-3</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37945244994797833</v>
       </c>
     </row>
@@ -2390,56 +2376,56 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D34" s="1">
         <v>32.327777777777776</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>857.78198477811395</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="6">101325/(287.058*(D34+273))</f>
+        <f t="shared" ref="F34:F65" si="8">101325/(287.058*(D34+273))</f>
         <v>1.1560607083818915</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>0.14871549505744722</v>
       </c>
       <c r="H34">
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>0.23779692009234407</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="3"/>
+      <c r="L34" s="2">
+        <f t="shared" si="5"/>
         <v>7.042966469282054E-2</v>
       </c>
-      <c r="M34" s="8">
-        <f t="shared" si="4"/>
+      <c r="M34" s="6">
+        <f t="shared" si="6"/>
         <v>134.23805385403884</v>
       </c>
-      <c r="N34" s="3">
-        <f>(E34-F34)*9.80665*J34*J34/H34</f>
+      <c r="N34" s="2">
+        <f t="shared" ref="N34:N65" si="9">(E34-F34)*9.80665*J34*J34/H34</f>
         <v>390.59703433053056</v>
       </c>
-      <c r="O34" s="7">
-        <f>G34/(E34-F34)/SQRT(9.80665*J34^3)</f>
+      <c r="O34" s="5">
+        <f t="shared" ref="O34:O65" si="10">G34/(E34-F34)/SQRT(9.80665*J34^3)</f>
         <v>7.4544774708705996E-3</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38929269430988112</v>
       </c>
     </row>
@@ -2448,11 +2434,11 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D35">
@@ -2462,7 +2448,7 @@
         <v>1000</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G35">
@@ -2472,7 +2458,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>5.0799999999999998E-2</v>
@@ -2480,24 +2466,24 @@
       <c r="K35">
         <v>0.36799999999999999</v>
       </c>
-      <c r="L35" s="3">
-        <f t="shared" si="3"/>
+      <c r="L35" s="2">
+        <f t="shared" si="5"/>
         <v>22.436931609789109</v>
       </c>
-      <c r="M35" s="8">
-        <f t="shared" si="4"/>
+      <c r="M35" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N35" s="3">
-        <f>(E35-F35)*9.80665*J35*J35/H35</f>
+      <c r="N35" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O35" s="7">
-        <f>G35/(E35-F35)/SQRT(9.80665*J35^3)</f>
+      <c r="O35" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5216946708205642</v>
       </c>
     </row>
@@ -2506,11 +2492,11 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D36">
@@ -2520,7 +2506,7 @@
         <v>1000</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G36">
@@ -2530,7 +2516,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>5.0799999999999998E-2</v>
@@ -2538,24 +2524,24 @@
       <c r="K36">
         <v>0.38700000000000001</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" si="3"/>
+      <c r="L36" s="2">
+        <f t="shared" si="5"/>
         <v>23.595360143990174</v>
       </c>
-      <c r="M36" s="8">
-        <f t="shared" si="4"/>
+      <c r="M36" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N36" s="3">
-        <f>(E36-F36)*9.80665*J36*J36/H36</f>
+      <c r="N36" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O36" s="7">
-        <f>G36/(E36-F36)/SQRT(9.80665*J36^3)</f>
+      <c r="O36" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.54862999349879982</v>
       </c>
     </row>
@@ -2564,11 +2550,11 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D37">
@@ -2578,7 +2564,7 @@
         <v>1000</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G37">
@@ -2588,7 +2574,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>5.0799999999999998E-2</v>
@@ -2596,24 +2582,24 @@
       <c r="K37">
         <v>0.39600000000000002</v>
       </c>
-      <c r="L37" s="3">
-        <f t="shared" si="3"/>
+      <c r="L37" s="2">
+        <f t="shared" si="5"/>
         <v>24.144089449664364</v>
       </c>
-      <c r="M37" s="8">
-        <f t="shared" si="4"/>
+      <c r="M37" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N37" s="3">
-        <f>(E37-F37)*9.80665*J37*J37/H37</f>
+      <c r="N37" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O37" s="7">
-        <f>G37/(E37-F37)/SQRT(9.80665*J37^3)</f>
+      <c r="O37" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56138883055691147</v>
       </c>
     </row>
@@ -2622,11 +2608,11 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D38">
@@ -2636,7 +2622,7 @@
         <v>1000</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G38">
@@ -2646,7 +2632,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>5.0799999999999998E-2</v>
@@ -2654,24 +2640,24 @@
       <c r="K38">
         <v>0.4</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="3"/>
+      <c r="L38" s="2">
+        <f t="shared" si="5"/>
         <v>24.387969141075118</v>
       </c>
-      <c r="M38" s="8">
-        <f t="shared" si="4"/>
+      <c r="M38" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N38" s="3">
-        <f>(E38-F38)*9.80665*J38*J38/H38</f>
+      <c r="N38" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O38" s="7">
-        <f>G38/(E38-F38)/SQRT(9.80665*J38^3)</f>
+      <c r="O38" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56705942480496108</v>
       </c>
     </row>
@@ -2680,11 +2666,11 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D39">
@@ -2694,7 +2680,7 @@
         <v>1000</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G39">
@@ -2704,7 +2690,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>5.0799999999999998E-2</v>
@@ -2712,24 +2698,24 @@
       <c r="K39">
         <v>0.39100000000000001</v>
       </c>
-      <c r="L39" s="3">
-        <f t="shared" si="3"/>
+      <c r="L39" s="2">
+        <f t="shared" si="5"/>
         <v>23.839239835400928</v>
       </c>
-      <c r="M39" s="8">
-        <f t="shared" si="4"/>
+      <c r="M39" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N39" s="3">
-        <f>(E39-F39)*9.80665*J39*J39/H39</f>
+      <c r="N39" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O39" s="7">
-        <f>G39/(E39-F39)/SQRT(9.80665*J39^3)</f>
+      <c r="O39" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55430058774684943</v>
       </c>
     </row>
@@ -2738,11 +2724,11 @@
         <v>60</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D40">
@@ -2752,7 +2738,7 @@
         <v>1000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G40">
@@ -2762,7 +2748,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>5.0799999999999998E-2</v>
@@ -2770,24 +2756,24 @@
       <c r="K40">
         <v>0.36899999999999999</v>
       </c>
-      <c r="L40" s="3">
-        <f t="shared" si="3"/>
+      <c r="L40" s="2">
+        <f t="shared" si="5"/>
         <v>22.497901532641794</v>
       </c>
-      <c r="M40" s="8">
-        <f t="shared" si="4"/>
+      <c r="M40" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N40" s="3">
-        <f>(E40-F40)*9.80665*J40*J40/H40</f>
+      <c r="N40" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O40" s="7">
-        <f>G40/(E40-F40)/SQRT(9.80665*J40^3)</f>
+      <c r="O40" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52311231938257663</v>
       </c>
     </row>
@@ -2796,11 +2782,11 @@
         <v>70</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D41">
@@ -2810,7 +2796,7 @@
         <v>1000</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G41">
@@ -2820,7 +2806,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>5.0799999999999998E-2</v>
@@ -2828,24 +2814,24 @@
       <c r="K41">
         <v>0.33700000000000002</v>
       </c>
-      <c r="L41" s="3">
-        <f t="shared" si="3"/>
+      <c r="L41" s="2">
+        <f t="shared" si="5"/>
         <v>20.546864001355786</v>
       </c>
-      <c r="M41" s="8">
-        <f t="shared" si="4"/>
+      <c r="M41" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N41" s="3">
-        <f>(E41-F41)*9.80665*J41*J41/H41</f>
+      <c r="N41" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O41" s="7">
-        <f>G41/(E41-F41)/SQRT(9.80665*J41^3)</f>
+      <c r="O41" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47774756539817975</v>
       </c>
     </row>
@@ -2854,11 +2840,11 @@
         <v>80</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D42">
@@ -2868,7 +2854,7 @@
         <v>1000</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G42">
@@ -2878,7 +2864,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>5.0799999999999998E-2</v>
@@ -2886,24 +2872,24 @@
       <c r="K42">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" si="3"/>
+      <c r="L42" s="2">
+        <f t="shared" si="5"/>
         <v>18.351946778659023</v>
       </c>
-      <c r="M42" s="8">
-        <f t="shared" si="4"/>
+      <c r="M42" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N42" s="3">
-        <f>(E42-F42)*9.80665*J42*J42/H42</f>
+      <c r="N42" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O42" s="7">
-        <f>G42/(E42-F42)/SQRT(9.80665*J42^3)</f>
+      <c r="O42" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42671221716573321</v>
       </c>
     </row>
@@ -2912,11 +2898,11 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43">
@@ -2926,7 +2912,7 @@
         <v>1000</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G43">
@@ -2936,7 +2922,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>5.0799999999999998E-2</v>
@@ -2944,24 +2930,24 @@
       <c r="K43">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L43" s="3">
-        <f t="shared" si="3"/>
+      <c r="L43" s="2">
+        <f t="shared" si="5"/>
         <v>15.669270173140761</v>
       </c>
-      <c r="M43" s="8">
-        <f t="shared" si="4"/>
+      <c r="M43" s="6">
+        <f t="shared" si="6"/>
         <v>35833.986900030846</v>
       </c>
-      <c r="N43" s="3">
-        <f>(E43-F43)*9.80665*J43*J43/H43</f>
+      <c r="N43" s="2">
+        <f t="shared" si="9"/>
         <v>347.21235429598454</v>
       </c>
-      <c r="O43" s="7">
-        <f>G43/(E43-F43)/SQRT(9.80665*J43^3)</f>
+      <c r="O43" s="5">
+        <f t="shared" si="10"/>
         <v>2.7923229451804494E-5</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3643356804371875</v>
       </c>
     </row>
@@ -2970,11 +2956,11 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D44">
@@ -2984,7 +2970,7 @@
         <v>869</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G44">
@@ -2994,7 +2980,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>5.0799999999999998E-2</v>
@@ -3002,24 +2988,24 @@
       <c r="K44">
         <v>0.309</v>
       </c>
-      <c r="L44" s="3">
-        <f t="shared" si="3"/>
+      <c r="L44" s="2">
+        <f t="shared" si="5"/>
         <v>0.16494277155547224</v>
       </c>
-      <c r="M44" s="8">
-        <f t="shared" si="4"/>
+      <c r="M44" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N44" s="3">
-        <f>(E44-F44)*9.80665*J44*J44/H44</f>
+      <c r="N44" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O44" s="7">
-        <f>G44/(E44-F44)/SQRT(9.80665*J44^3)</f>
+      <c r="O44" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43806598311994699</v>
       </c>
     </row>
@@ -3028,11 +3014,11 @@
         <v>20</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D45">
@@ -3042,7 +3028,7 @@
         <v>869</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G45">
@@ -3052,7 +3038,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>5.0799999999999998E-2</v>
@@ -3060,24 +3046,24 @@
       <c r="K45">
         <v>0.316</v>
       </c>
-      <c r="L45" s="3">
-        <f t="shared" si="3"/>
+      <c r="L45" s="2">
+        <f t="shared" si="5"/>
         <v>0.16867933919588751</v>
       </c>
-      <c r="M45" s="8">
-        <f t="shared" si="4"/>
+      <c r="M45" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N45" s="3">
-        <f>(E45-F45)*9.80665*J45*J45/H45</f>
+      <c r="N45" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O45" s="7">
-        <f>G45/(E45-F45)/SQRT(9.80665*J45^3)</f>
+      <c r="O45" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44798980798026944</v>
       </c>
     </row>
@@ -3086,11 +3072,11 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D46">
@@ -3100,7 +3086,7 @@
         <v>869</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G46">
@@ -3110,7 +3096,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>5.0799999999999998E-2</v>
@@ -3118,24 +3104,24 @@
       <c r="K46">
         <v>0.33600000000000002</v>
       </c>
-      <c r="L46" s="3">
-        <f t="shared" si="3"/>
+      <c r="L46" s="2">
+        <f t="shared" si="5"/>
         <v>0.179355246739931</v>
       </c>
-      <c r="M46" s="8">
-        <f t="shared" si="4"/>
+      <c r="M46" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N46" s="3">
-        <f>(E46-F46)*9.80665*J46*J46/H46</f>
+      <c r="N46" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O46" s="7">
-        <f>G46/(E46-F46)/SQRT(9.80665*J46^3)</f>
+      <c r="O46" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47634359329547638</v>
       </c>
     </row>
@@ -3144,11 +3130,11 @@
         <v>40</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D47">
@@ -3158,7 +3144,7 @@
         <v>869</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G47">
@@ -3168,7 +3154,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>5.0799999999999998E-2</v>
@@ -3176,24 +3162,24 @@
       <c r="K47">
         <v>0.33600000000000002</v>
       </c>
-      <c r="L47" s="3">
-        <f t="shared" si="3"/>
+      <c r="L47" s="2">
+        <f t="shared" si="5"/>
         <v>0.179355246739931</v>
       </c>
-      <c r="M47" s="8">
-        <f t="shared" si="4"/>
+      <c r="M47" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N47" s="3">
-        <f>(E47-F47)*9.80665*J47*J47/H47</f>
+      <c r="N47" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O47" s="7">
-        <f>G47/(E47-F47)/SQRT(9.80665*J47^3)</f>
+      <c r="O47" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47634359329547638</v>
       </c>
     </row>
@@ -3202,11 +3188,11 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D48">
@@ -3216,7 +3202,7 @@
         <v>869</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G48">
@@ -3226,7 +3212,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>5.0799999999999998E-2</v>
@@ -3234,24 +3220,24 @@
       <c r="K48">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L48" s="3">
-        <f t="shared" si="3"/>
+      <c r="L48" s="2">
+        <f t="shared" si="5"/>
         <v>0.17775386060832452</v>
       </c>
-      <c r="M48" s="8">
-        <f t="shared" si="4"/>
+      <c r="M48" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N48" s="3">
-        <f>(E48-F48)*9.80665*J48*J48/H48</f>
+      <c r="N48" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O48" s="7">
-        <f>G48/(E48-F48)/SQRT(9.80665*J48^3)</f>
+      <c r="O48" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47209052549819536</v>
       </c>
     </row>
@@ -3260,11 +3246,11 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D49">
@@ -3274,7 +3260,7 @@
         <v>869</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G49">
@@ -3284,7 +3270,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>5.0799999999999998E-2</v>
@@ -3292,24 +3278,24 @@
       <c r="K49">
         <v>0.316</v>
       </c>
-      <c r="L49" s="3">
-        <f t="shared" si="3"/>
+      <c r="L49" s="2">
+        <f t="shared" si="5"/>
         <v>0.16867933919588751</v>
       </c>
-      <c r="M49" s="8">
-        <f t="shared" si="4"/>
+      <c r="M49" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N49" s="3">
-        <f>(E49-F49)*9.80665*J49*J49/H49</f>
+      <c r="N49" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O49" s="7">
-        <f>G49/(E49-F49)/SQRT(9.80665*J49^3)</f>
+      <c r="O49" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44798980798026944</v>
       </c>
     </row>
@@ -3318,11 +3304,11 @@
         <v>70</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D50">
@@ -3332,7 +3318,7 @@
         <v>869</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G50">
@@ -3342,7 +3328,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>5.0799999999999998E-2</v>
@@ -3350,24 +3336,24 @@
       <c r="K50">
         <v>0.29399999999999998</v>
       </c>
-      <c r="L50" s="3">
-        <f t="shared" si="3"/>
+      <c r="L50" s="2">
+        <f t="shared" si="5"/>
         <v>0.15693584089743964</v>
       </c>
-      <c r="M50" s="8">
-        <f t="shared" si="4"/>
+      <c r="M50" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N50" s="3">
-        <f>(E50-F50)*9.80665*J50*J50/H50</f>
+      <c r="N50" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O50" s="7">
-        <f>G50/(E50-F50)/SQRT(9.80665*J50^3)</f>
+      <c r="O50" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41680064413354179</v>
       </c>
     </row>
@@ -3376,11 +3362,11 @@
         <v>80</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D51">
@@ -3390,7 +3376,7 @@
         <v>869</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G51">
@@ -3400,7 +3386,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>5.0799999999999998E-2</v>
@@ -3408,24 +3394,24 @@
       <c r="K51">
         <v>0.27</v>
       </c>
-      <c r="L51" s="3">
-        <f t="shared" si="3"/>
+      <c r="L51" s="2">
+        <f t="shared" si="5"/>
         <v>0.14412475184458742</v>
       </c>
-      <c r="M51" s="8">
-        <f t="shared" si="4"/>
+      <c r="M51" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N51" s="3">
-        <f>(E51-F51)*9.80665*J51*J51/H51</f>
+      <c r="N51" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O51" s="7">
-        <f>G51/(E51-F51)/SQRT(9.80665*J51^3)</f>
+      <c r="O51" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38277610175529353</v>
       </c>
     </row>
@@ -3434,11 +3420,11 @@
         <v>88</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D52">
@@ -3448,7 +3434,7 @@
         <v>869</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G52">
@@ -3458,7 +3444,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>5.0799999999999998E-2</v>
@@ -3466,24 +3452,24 @@
       <c r="K52">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L52" s="3">
-        <f t="shared" si="3"/>
+      <c r="L52" s="2">
+        <f t="shared" si="5"/>
         <v>0.13024607203733085</v>
       </c>
-      <c r="M52" s="8">
-        <f t="shared" si="4"/>
+      <c r="M52" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N52" s="3">
-        <f>(E52-F52)*9.80665*J52*J52/H52</f>
+      <c r="N52" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O52" s="7">
-        <f>G52/(E52-F52)/SQRT(9.80665*J52^3)</f>
+      <c r="O52" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3459161808455245</v>
       </c>
     </row>
@@ -3492,11 +3478,11 @@
         <v>90</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D53">
@@ -3506,7 +3492,7 @@
         <v>869</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0928094336422494</v>
       </c>
       <c r="G53">
@@ -3516,7 +3502,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>5.0799999999999998E-2</v>
@@ -3524,24 +3510,24 @@
       <c r="K53">
         <v>0.23899999999999999</v>
       </c>
-      <c r="L53" s="3">
-        <f t="shared" si="3"/>
+      <c r="L53" s="2">
+        <f t="shared" si="5"/>
         <v>0.12757709515131996</v>
       </c>
-      <c r="M53" s="8">
-        <f t="shared" si="4"/>
+      <c r="M53" s="6">
+        <f t="shared" si="6"/>
         <v>299.41192839279921</v>
       </c>
-      <c r="N53" s="3">
-        <f>(E53-F53)*9.80665*J53*J53/H53</f>
+      <c r="N53" s="2">
+        <f t="shared" si="9"/>
         <v>744.55943381900227</v>
       </c>
-      <c r="O53" s="7">
-        <f>G53/(E53-F53)/SQRT(9.80665*J53^3)</f>
+      <c r="O53" s="5">
+        <f t="shared" si="10"/>
         <v>3.3419823089757277E-3</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33882773451672277</v>
       </c>
     </row>
@@ -3550,11 +3536,11 @@
         <v>10</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D54">
@@ -3564,7 +3550,7 @@
         <v>876</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G54">
@@ -3574,7 +3560,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>5.0799999999999998E-2</v>
@@ -3582,24 +3568,24 @@
       <c r="K54">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L54" s="3">
-        <f t="shared" si="3"/>
+      <c r="L54" s="2">
+        <f t="shared" si="5"/>
         <v>8.6706695571593731E-2</v>
       </c>
-      <c r="M54" s="8">
-        <f t="shared" si="4"/>
+      <c r="M54" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N54" s="3">
-        <f>(E54-F54)*9.80665*J54*J54/H54</f>
+      <c r="N54" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O54" s="7">
-        <f>G54/(E54-F54)/SQRT(9.80665*J54^3)</f>
+      <c r="O54" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.39695891804461791</v>
       </c>
     </row>
@@ -3608,11 +3594,11 @@
         <v>20</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D55">
@@ -3622,7 +3608,7 @@
         <v>876</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G55">
@@ -3632,7 +3618,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>5.0799999999999998E-2</v>
@@ -3640,24 +3626,24 @@
       <c r="K55">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L55" s="3">
-        <f t="shared" si="3"/>
+      <c r="L55" s="2">
+        <f t="shared" si="5"/>
         <v>9.3829031279260358E-2</v>
       </c>
-      <c r="M55" s="8">
-        <f t="shared" si="4"/>
+      <c r="M55" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N55" s="3">
-        <f>(E55-F55)*9.80665*J55*J55/H55</f>
+      <c r="N55" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O55" s="7">
-        <f>G55/(E55-F55)/SQRT(9.80665*J55^3)</f>
+      <c r="O55" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42956625774114005</v>
       </c>
     </row>
@@ -3666,11 +3652,11 @@
         <v>30</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D56">
@@ -3680,7 +3666,7 @@
         <v>876</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G56">
@@ -3690,7 +3676,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>5.0799999999999998E-2</v>
@@ -3698,24 +3684,24 @@
       <c r="K56">
         <v>0.316</v>
       </c>
-      <c r="L56" s="3">
-        <f t="shared" si="3"/>
+      <c r="L56" s="2">
+        <f t="shared" si="5"/>
         <v>9.7854699287941507E-2</v>
       </c>
-      <c r="M56" s="8">
-        <f t="shared" si="4"/>
+      <c r="M56" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N56" s="3">
-        <f>(E56-F56)*9.80665*J56*J56/H56</f>
+      <c r="N56" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O56" s="7">
-        <f>G56/(E56-F56)/SQRT(9.80665*J56^3)</f>
+      <c r="O56" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44799649322178303</v>
       </c>
     </row>
@@ -3724,11 +3710,11 @@
         <v>40</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D57">
@@ -3738,7 +3724,7 @@
         <v>876</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G57">
@@ -3748,7 +3734,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>5.0799999999999998E-2</v>
@@ -3756,24 +3742,24 @@
       <c r="K57">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L57" s="3">
-        <f t="shared" si="3"/>
+      <c r="L57" s="2">
+        <f t="shared" si="5"/>
         <v>0.10033203344712989</v>
       </c>
-      <c r="M57" s="8">
-        <f t="shared" si="4"/>
+      <c r="M57" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N57" s="3">
-        <f>(E57-F57)*9.80665*J57*J57/H57</f>
+      <c r="N57" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O57" s="7">
-        <f>G57/(E57-F57)/SQRT(9.80665*J57^3)</f>
+      <c r="O57" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45933817659448645</v>
       </c>
     </row>
@@ -3782,11 +3768,11 @@
         <v>50</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D58">
@@ -3796,7 +3782,7 @@
         <v>876</v>
       </c>
       <c r="F58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G58">
@@ -3806,7 +3792,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>5.0799999999999998E-2</v>
@@ -3814,24 +3800,24 @@
       <c r="K58">
         <v>0.32</v>
       </c>
-      <c r="L58" s="3">
-        <f t="shared" si="3"/>
+      <c r="L58" s="2">
+        <f t="shared" si="5"/>
         <v>9.9093366367535712E-2</v>
       </c>
-      <c r="M58" s="8">
-        <f t="shared" si="4"/>
+      <c r="M58" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N58" s="3">
-        <f>(E58-F58)*9.80665*J58*J58/H58</f>
+      <c r="N58" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O58" s="7">
-        <f>G58/(E58-F58)/SQRT(9.80665*J58^3)</f>
+      <c r="O58" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45366733490813471</v>
       </c>
     </row>
@@ -3840,11 +3826,11 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D59">
@@ -3854,7 +3840,7 @@
         <v>876</v>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G59">
@@ -3864,7 +3850,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>5.0799999999999998E-2</v>
@@ -3872,24 +3858,24 @@
       <c r="K59">
         <v>0.30399999999999999</v>
       </c>
-      <c r="L59" s="3">
-        <f t="shared" si="3"/>
+      <c r="L59" s="2">
+        <f t="shared" si="5"/>
         <v>9.413869804915892E-2</v>
       </c>
-      <c r="M59" s="8">
-        <f t="shared" si="4"/>
+      <c r="M59" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N59" s="3">
-        <f>(E59-F59)*9.80665*J59*J59/H59</f>
+      <c r="N59" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O59" s="7">
-        <f>G59/(E59-F59)/SQRT(9.80665*J59^3)</f>
+      <c r="O59" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43098396816272799</v>
       </c>
     </row>
@@ -3898,11 +3884,11 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D60">
@@ -3912,7 +3898,7 @@
         <v>876</v>
       </c>
       <c r="F60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G60">
@@ -3922,7 +3908,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>5.0799999999999998E-2</v>
@@ -3930,24 +3916,24 @@
       <c r="K60">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L60" s="3">
-        <f t="shared" si="3"/>
+      <c r="L60" s="2">
+        <f t="shared" si="5"/>
         <v>8.7945362651187922E-2</v>
       </c>
-      <c r="M60" s="8">
-        <f t="shared" si="4"/>
+      <c r="M60" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N60" s="3">
-        <f>(E60-F60)*9.80665*J60*J60/H60</f>
+      <c r="N60" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O60" s="7">
-        <f>G60/(E60-F60)/SQRT(9.80665*J60^3)</f>
+      <c r="O60" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40262975973096954</v>
       </c>
     </row>
@@ -3956,11 +3942,11 @@
         <v>80</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D61">
@@ -3970,7 +3956,7 @@
         <v>876</v>
       </c>
       <c r="F61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G61">
@@ -3980,7 +3966,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>5.0799999999999998E-2</v>
@@ -3988,24 +3974,24 @@
       <c r="K61">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L61" s="3">
-        <f t="shared" si="3"/>
+      <c r="L61" s="2">
+        <f t="shared" si="5"/>
         <v>7.9894026633825652E-2</v>
       </c>
-      <c r="M61" s="8">
-        <f t="shared" si="4"/>
+      <c r="M61" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N61" s="3">
-        <f>(E61-F61)*9.80665*J61*J61/H61</f>
+      <c r="N61" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O61" s="7">
-        <f>G61/(E61-F61)/SQRT(9.80665*J61^3)</f>
+      <c r="O61" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36576928876968362</v>
       </c>
     </row>
@@ -4014,11 +4000,11 @@
         <v>88</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D62">
@@ -4028,7 +4014,7 @@
         <v>876</v>
       </c>
       <c r="F62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G62">
@@ -4038,7 +4024,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>5.0799999999999998E-2</v>
@@ -4046,24 +4032,24 @@
       <c r="K62">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L62" s="3">
-        <f t="shared" si="3"/>
+      <c r="L62" s="2">
+        <f t="shared" si="5"/>
         <v>7.3081357696057572E-2</v>
       </c>
-      <c r="M62" s="8">
-        <f t="shared" si="4"/>
+      <c r="M62" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N62" s="3">
-        <f>(E62-F62)*9.80665*J62*J62/H62</f>
+      <c r="N62" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O62" s="7">
-        <f>G62/(E62-F62)/SQRT(9.80665*J62^3)</f>
+      <c r="O62" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33457965949474933</v>
       </c>
     </row>
@@ -4072,11 +4058,11 @@
         <v>90</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D63">
@@ -4086,7 +4072,7 @@
         <v>876</v>
       </c>
       <c r="F63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1277234730557397</v>
       </c>
       <c r="G63">
@@ -4096,7 +4082,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>5.0799999999999998E-2</v>
@@ -4104,24 +4090,24 @@
       <c r="K63">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L63" s="3">
-        <f t="shared" si="3"/>
+      <c r="L63" s="2">
+        <f t="shared" si="5"/>
         <v>7.1842690616463381E-2</v>
       </c>
-      <c r="M63" s="8">
-        <f t="shared" si="4"/>
+      <c r="M63" s="6">
+        <f t="shared" si="6"/>
         <v>169.67136673471026</v>
       </c>
-      <c r="N63" s="3">
-        <f>(E63-F63)*9.80665*J63*J63/H63</f>
+      <c r="N63" s="2">
+        <f t="shared" si="9"/>
         <v>750.53463544848864</v>
       </c>
-      <c r="O63" s="7">
-        <f>G63/(E63-F63)/SQRT(9.80665*J63^3)</f>
+      <c r="O63" s="5">
+        <f t="shared" si="10"/>
         <v>5.897543699845873E-3</v>
       </c>
       <c r="P63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3289088178083977</v>
       </c>
     </row>
@@ -4130,11 +4116,11 @@
         <v>10</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D64">
@@ -4144,7 +4130,7 @@
         <v>881</v>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G64">
@@ -4154,7 +4140,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>5.0799999999999998E-2</v>
@@ -4162,24 +4148,24 @@
       <c r="K64">
         <v>0.254</v>
       </c>
-      <c r="L64" s="3">
-        <f t="shared" si="3"/>
+      <c r="L64" s="2">
+        <f t="shared" si="5"/>
         <v>5.0415972191338559E-2</v>
       </c>
-      <c r="M64" s="8">
-        <f t="shared" si="4"/>
+      <c r="M64" s="6">
+        <f t="shared" si="6"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N64" s="3">
-        <f>(E64-F64)*9.80665*J64*J64/H64</f>
+      <c r="N64" s="2">
+        <f t="shared" si="9"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O64" s="7">
-        <f>G64/(E64-F64)/SQRT(9.80665*J64^3)</f>
+      <c r="O64" s="5">
+        <f t="shared" si="10"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36010302776158393</v>
       </c>
     </row>
@@ -4188,11 +4174,11 @@
         <v>20</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D65">
@@ -4202,7 +4188,7 @@
         <v>881</v>
       </c>
       <c r="F65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G65">
@@ -4212,7 +4198,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>5.0799999999999998E-2</v>
@@ -4220,24 +4206,24 @@
       <c r="K65">
         <v>0.28299999999999997</v>
       </c>
-      <c r="L65" s="3">
-        <f t="shared" si="3"/>
+      <c r="L65" s="2">
+        <f t="shared" si="5"/>
         <v>5.6172126496648864E-2</v>
       </c>
-      <c r="M65" s="8">
-        <f t="shared" si="4"/>
+      <c r="M65" s="6">
+        <f t="shared" si="6"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N65" s="3">
-        <f>(E65-F65)*9.80665*J65*J65/H65</f>
+      <c r="N65" s="2">
+        <f t="shared" si="9"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O65" s="7">
-        <f>G65/(E65-F65)/SQRT(9.80665*J65^3)</f>
+      <c r="O65" s="5">
+        <f t="shared" si="10"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40121715297845767</v>
       </c>
     </row>
@@ -4246,11 +4232,11 @@
         <v>30</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D66">
@@ -4260,7 +4246,7 @@
         <v>881</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="7">101325/(287.058*(D66+273))</f>
+        <f t="shared" ref="F66:F97" si="11">101325/(287.058*(D66+273))</f>
         <v>1.1565447151587369</v>
       </c>
       <c r="G66">
@@ -4270,7 +4256,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>5.0799999999999998E-2</v>
@@ -4278,24 +4264,24 @@
       <c r="K66">
         <v>0.29799999999999999</v>
       </c>
-      <c r="L66" s="3">
-        <f t="shared" si="3"/>
+      <c r="L66" s="2">
+        <f t="shared" si="5"/>
         <v>5.9149447689050755E-2</v>
       </c>
-      <c r="M66" s="8">
-        <f t="shared" si="4"/>
+      <c r="M66" s="6">
+        <f t="shared" si="6"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N66" s="3">
-        <f>(E66-F66)*9.80665*J66*J66/H66</f>
+      <c r="N66" s="2">
+        <f t="shared" ref="N66:N97" si="12">(E66-F66)*9.80665*J66*J66/H66</f>
         <v>754.79930577456059</v>
       </c>
-      <c r="O66" s="7">
-        <f>G66/(E66-F66)/SQRT(9.80665*J66^3)</f>
+      <c r="O66" s="5">
+        <f t="shared" ref="O66:O97" si="13">G66/(E66-F66)/SQRT(9.80665*J66^3)</f>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42248307981477168</v>
       </c>
     </row>
@@ -4304,11 +4290,11 @@
         <v>40</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="8">+COS(RADIANS(A67))</f>
+        <f t="shared" ref="B67:B130" si="14">+COS(RADIANS(A67))</f>
         <v>0.76604444311897801</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="9">+SIN(RADIANS(A67))</f>
+        <f t="shared" ref="C67:C130" si="15">+SIN(RADIANS(A67))</f>
         <v>0.64278760968653925</v>
       </c>
       <c r="D67">
@@ -4318,7 +4304,7 @@
         <v>881</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G67">
@@ -4328,7 +4314,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>5.0799999999999998E-2</v>
@@ -4336,24 +4322,24 @@
       <c r="K67">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L67" s="3">
-        <f t="shared" ref="L67:L130" si="10">+F67*K67*J67/G67</f>
+      <c r="L67" s="2">
+        <f t="shared" ref="L67:L130" si="16">+F67*K67*J67/G67</f>
         <v>6.0141888086518047E-2</v>
       </c>
-      <c r="M67" s="8">
-        <f t="shared" ref="M67:M130" si="11">+(9.80665*J67^3*(E67-F67)*E67)^0.5/G67</f>
+      <c r="M67" s="6">
+        <f t="shared" ref="M67:M130" si="17">+(9.80665*J67^3*(E67-F67)*E67)^0.5/G67</f>
         <v>106.64852499430658</v>
       </c>
-      <c r="N67" s="3">
-        <f>(E67-F67)*9.80665*J67*J67/H67</f>
+      <c r="N67" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O67" s="7">
-        <f>G67/(E67-F67)/SQRT(9.80665*J67^3)</f>
+      <c r="O67" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="12">K67/SQRT(9.80665*J67*(1-F67/E67))</f>
+        <f t="shared" ref="P67:P130" si="18">K67/SQRT(9.80665*J67*(1-F67/E67))</f>
         <v>0.42957172209354305</v>
       </c>
     </row>
@@ -4362,11 +4348,11 @@
         <v>50</v>
       </c>
       <c r="B68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D68">
@@ -4376,7 +4362,7 @@
         <v>881</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G68">
@@ -4386,7 +4372,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>5.0799999999999998E-2</v>
@@ -4394,24 +4380,24 @@
       <c r="K68">
         <v>0.29799999999999999</v>
       </c>
-      <c r="L68" s="3">
-        <f t="shared" si="10"/>
+      <c r="L68" s="2">
+        <f t="shared" si="16"/>
         <v>5.9149447689050755E-2</v>
       </c>
-      <c r="M68" s="8">
-        <f t="shared" si="11"/>
+      <c r="M68" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N68" s="3">
-        <f>(E68-F68)*9.80665*J68*J68/H68</f>
+      <c r="N68" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O68" s="7">
-        <f>G68/(E68-F68)/SQRT(9.80665*J68^3)</f>
+      <c r="O68" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42248307981477168</v>
       </c>
     </row>
@@ -4420,11 +4406,11 @@
         <v>60</v>
       </c>
       <c r="B69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D69">
@@ -4434,7 +4420,7 @@
         <v>881</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G69">
@@ -4444,7 +4430,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>5.0799999999999998E-2</v>
@@ -4452,24 +4438,24 @@
       <c r="K69">
         <v>0.28100000000000003</v>
       </c>
-      <c r="L69" s="3">
-        <f t="shared" si="10"/>
+      <c r="L69" s="2">
+        <f t="shared" si="16"/>
         <v>5.5775150337661956E-2</v>
       </c>
-      <c r="M69" s="8">
-        <f t="shared" si="11"/>
+      <c r="M69" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N69" s="3">
-        <f>(E69-F69)*9.80665*J69*J69/H69</f>
+      <c r="N69" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O69" s="7">
-        <f>G69/(E69-F69)/SQRT(9.80665*J69^3)</f>
+      <c r="O69" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.39838169606694923</v>
       </c>
     </row>
@@ -4478,11 +4464,11 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D70">
@@ -4492,7 +4478,7 @@
         <v>881</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G70">
@@ -4502,7 +4488,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>5.0799999999999998E-2</v>
@@ -4510,24 +4496,24 @@
       <c r="K70">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L70" s="3">
-        <f t="shared" si="10"/>
+      <c r="L70" s="2">
+        <f t="shared" si="16"/>
         <v>5.3194805304246986E-2</v>
       </c>
-      <c r="M70" s="8">
-        <f t="shared" si="11"/>
+      <c r="M70" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N70" s="3">
-        <f>(E70-F70)*9.80665*J70*J70/H70</f>
+      <c r="N70" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O70" s="7">
-        <f>G70/(E70-F70)/SQRT(9.80665*J70^3)</f>
+      <c r="O70" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.37995122614214372</v>
       </c>
     </row>
@@ -4536,11 +4522,11 @@
         <v>80</v>
       </c>
       <c r="B71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D71">
@@ -4550,7 +4536,7 @@
         <v>881</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G71">
@@ -4560,7 +4546,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>5.0799999999999998E-2</v>
@@ -4568,24 +4554,24 @@
       <c r="K71">
         <v>0.247</v>
       </c>
-      <c r="L71" s="3">
-        <f t="shared" si="10"/>
+      <c r="L71" s="2">
+        <f t="shared" si="16"/>
         <v>4.9026555634884346E-2</v>
       </c>
-      <c r="M71" s="8">
-        <f t="shared" si="11"/>
+      <c r="M71" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N71" s="3">
-        <f>(E71-F71)*9.80665*J71*J71/H71</f>
+      <c r="N71" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O71" s="7">
-        <f>G71/(E71-F71)/SQRT(9.80665*J71^3)</f>
+      <c r="O71" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.35017892857130406</v>
       </c>
     </row>
@@ -4594,11 +4580,11 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D72">
@@ -4608,7 +4594,7 @@
         <v>881</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G72">
@@ -4618,7 +4604,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>5.0799999999999998E-2</v>
@@ -4626,24 +4612,24 @@
       <c r="K72">
         <v>0.23300000000000001</v>
       </c>
-      <c r="L72" s="3">
-        <f t="shared" si="10"/>
+      <c r="L72" s="2">
+        <f t="shared" si="16"/>
         <v>4.6247722521975926E-2</v>
       </c>
-      <c r="M72" s="8">
-        <f t="shared" si="11"/>
+      <c r="M72" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N72" s="3">
-        <f>(E72-F72)*9.80665*J72*J72/H72</f>
+      <c r="N72" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O72" s="7">
-        <f>G72/(E72-F72)/SQRT(9.80665*J72^3)</f>
+      <c r="O72" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.33033073019074433</v>
       </c>
     </row>
@@ -4652,11 +4638,11 @@
         <v>90</v>
       </c>
       <c r="B73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D73">
@@ -4666,7 +4652,7 @@
         <v>881</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1565447151587369</v>
       </c>
       <c r="G73">
@@ -4676,7 +4662,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>5.0799999999999998E-2</v>
@@ -4684,24 +4670,24 @@
       <c r="K73">
         <v>0.22800000000000001</v>
       </c>
-      <c r="L73" s="3">
-        <f t="shared" si="10"/>
+      <c r="L73" s="2">
+        <f t="shared" si="16"/>
         <v>4.5255282124508626E-2</v>
       </c>
-      <c r="M73" s="8">
-        <f t="shared" si="11"/>
+      <c r="M73" s="6">
+        <f t="shared" si="17"/>
         <v>106.64852499430658</v>
       </c>
-      <c r="N73" s="3">
-        <f>(E73-F73)*9.80665*J73*J73/H73</f>
+      <c r="N73" s="2">
+        <f t="shared" si="12"/>
         <v>754.79930577456059</v>
       </c>
-      <c r="O73" s="7">
-        <f>G73/(E73-F73)/SQRT(9.80665*J73^3)</f>
+      <c r="O73" s="5">
+        <f t="shared" si="13"/>
         <v>9.3827554465236978E-3</v>
       </c>
       <c r="P73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32324208791197301</v>
       </c>
     </row>
@@ -4710,11 +4696,11 @@
         <v>10</v>
       </c>
       <c r="B74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D74">
@@ -4724,7 +4710,7 @@
         <v>884</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G74">
@@ -4734,7 +4720,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>5.0799999999999998E-2</v>
@@ -4742,24 +4728,24 @@
       <c r="K74">
         <v>0.23</v>
       </c>
-      <c r="L74" s="3">
-        <f t="shared" si="10"/>
+      <c r="L74" s="2">
+        <f t="shared" si="16"/>
         <v>3.3344990811339049E-2</v>
       </c>
-      <c r="M74" s="8">
-        <f t="shared" si="11"/>
+      <c r="M74" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N74" s="3">
-        <f>(E74-F74)*9.80665*J74*J74/H74</f>
+      <c r="N74" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O74" s="7">
-        <f>G74/(E74-F74)/SQRT(9.80665*J74^3)</f>
+      <c r="O74" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32608037493982928</v>
       </c>
     </row>
@@ -4768,11 +4754,11 @@
         <v>20</v>
       </c>
       <c r="B75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D75">
@@ -4782,7 +4768,7 @@
         <v>884</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G75">
@@ -4792,7 +4778,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>5.0799999999999998E-2</v>
@@ -4800,24 +4786,24 @@
       <c r="K75">
         <v>0.26500000000000001</v>
       </c>
-      <c r="L75" s="3">
-        <f t="shared" si="10"/>
+      <c r="L75" s="2">
+        <f t="shared" si="16"/>
         <v>3.8419228543499342E-2</v>
       </c>
-      <c r="M75" s="8">
-        <f t="shared" si="11"/>
+      <c r="M75" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N75" s="3">
-        <f>(E75-F75)*9.80665*J75*J75/H75</f>
+      <c r="N75" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O75" s="7">
-        <f>G75/(E75-F75)/SQRT(9.80665*J75^3)</f>
+      <c r="O75" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.37570130156110759</v>
       </c>
     </row>
@@ -4826,11 +4812,11 @@
         <v>30</v>
       </c>
       <c r="B76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D76">
@@ -4840,7 +4826,7 @@
         <v>884</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G76">
@@ -4850,7 +4836,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>5.0799999999999998E-2</v>
@@ -4858,24 +4844,24 @@
       <c r="K76">
         <v>0.27500000000000002</v>
       </c>
-      <c r="L76" s="3">
-        <f t="shared" si="10"/>
+      <c r="L76" s="2">
+        <f t="shared" si="16"/>
         <v>3.9869010752687999E-2</v>
       </c>
-      <c r="M76" s="8">
-        <f t="shared" si="11"/>
+      <c r="M76" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N76" s="3">
-        <f>(E76-F76)*9.80665*J76*J76/H76</f>
+      <c r="N76" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O76" s="7">
-        <f>G76/(E76-F76)/SQRT(9.80665*J76^3)</f>
+      <c r="O76" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.38987870916718714</v>
       </c>
     </row>
@@ -4884,11 +4870,11 @@
         <v>40</v>
       </c>
       <c r="B77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D77">
@@ -4898,7 +4884,7 @@
         <v>884</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G77">
@@ -4908,7 +4894,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>5.0799999999999998E-2</v>
@@ -4916,24 +4902,24 @@
       <c r="K77">
         <v>0.28100000000000003</v>
       </c>
-      <c r="L77" s="3">
-        <f t="shared" si="10"/>
+      <c r="L77" s="2">
+        <f t="shared" si="16"/>
         <v>4.0738880078201187E-2</v>
       </c>
-      <c r="M77" s="8">
-        <f t="shared" si="11"/>
+      <c r="M77" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N77" s="3">
-        <f>(E77-F77)*9.80665*J77*J77/H77</f>
+      <c r="N77" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O77" s="7">
-        <f>G77/(E77-F77)/SQRT(9.80665*J77^3)</f>
+      <c r="O77" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.39838515373083488</v>
       </c>
     </row>
@@ -4942,11 +4928,11 @@
         <v>50</v>
       </c>
       <c r="B78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D78">
@@ -4956,7 +4942,7 @@
         <v>884</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G78">
@@ -4966,7 +4952,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>5.0799999999999998E-2</v>
@@ -4974,24 +4960,24 @@
       <c r="K78">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L78" s="3">
-        <f t="shared" si="10"/>
+      <c r="L78" s="2">
+        <f t="shared" si="16"/>
         <v>4.0303945415444596E-2</v>
       </c>
-      <c r="M78" s="8">
-        <f t="shared" si="11"/>
+      <c r="M78" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N78" s="3">
-        <f>(E78-F78)*9.80665*J78*J78/H78</f>
+      <c r="N78" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O78" s="7">
-        <f>G78/(E78-F78)/SQRT(9.80665*J78^3)</f>
+      <c r="O78" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.39413193144901104</v>
       </c>
     </row>
@@ -5000,11 +4986,11 @@
         <v>60</v>
       </c>
       <c r="B79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D79">
@@ -5014,7 +5000,7 @@
         <v>884</v>
       </c>
       <c r="F79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G79">
@@ -5024,7 +5010,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>5.0799999999999998E-2</v>
@@ -5032,24 +5018,24 @@
       <c r="K79">
         <v>0.26400000000000001</v>
       </c>
-      <c r="L79" s="3">
-        <f t="shared" si="10"/>
+      <c r="L79" s="2">
+        <f t="shared" si="16"/>
         <v>3.8274250322580472E-2</v>
       </c>
-      <c r="M79" s="8">
-        <f t="shared" si="11"/>
+      <c r="M79" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N79" s="3">
-        <f>(E79-F79)*9.80665*J79*J79/H79</f>
+      <c r="N79" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O79" s="7">
-        <f>G79/(E79-F79)/SQRT(9.80665*J79^3)</f>
+      <c r="O79" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.37428356080049968</v>
       </c>
     </row>
@@ -5058,11 +5044,11 @@
         <v>70</v>
       </c>
       <c r="B80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D80">
@@ -5072,7 +5058,7 @@
         <v>884</v>
       </c>
       <c r="F80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G80">
@@ -5082,7 +5068,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>5.0799999999999998E-2</v>
@@ -5090,24 +5076,24 @@
       <c r="K80">
         <v>0.24199999999999999</v>
       </c>
-      <c r="L80" s="3">
-        <f t="shared" si="10"/>
+      <c r="L80" s="2">
+        <f t="shared" si="16"/>
         <v>3.5084729462365433E-2</v>
       </c>
-      <c r="M80" s="8">
-        <f t="shared" si="11"/>
+      <c r="M80" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N80" s="3">
-        <f>(E80-F80)*9.80665*J80*J80/H80</f>
+      <c r="N80" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O80" s="7">
-        <f>G80/(E80-F80)/SQRT(9.80665*J80^3)</f>
+      <c r="O80" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.34309326406712465</v>
       </c>
     </row>
@@ -5116,11 +5102,11 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D81">
@@ -5130,7 +5116,7 @@
         <v>884</v>
       </c>
       <c r="F81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G81">
@@ -5140,7 +5126,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>5.0799999999999998E-2</v>
@@ -5148,24 +5134,24 @@
       <c r="K81">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L81" s="3">
-        <f t="shared" si="10"/>
+      <c r="L81" s="2">
+        <f t="shared" si="16"/>
         <v>3.2765077927663588E-2</v>
       </c>
-      <c r="M81" s="8">
-        <f t="shared" si="11"/>
+      <c r="M81" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N81" s="3">
-        <f>(E81-F81)*9.80665*J81*J81/H81</f>
+      <c r="N81" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O81" s="7">
-        <f>G81/(E81-F81)/SQRT(9.80665*J81^3)</f>
+      <c r="O81" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32040941189739741</v>
       </c>
     </row>
@@ -5174,11 +5160,11 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D82">
@@ -5188,7 +5174,7 @@
         <v>884</v>
       </c>
       <c r="F82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G82">
@@ -5198,7 +5184,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>5.0799999999999998E-2</v>
@@ -5206,24 +5192,24 @@
       <c r="K82">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L82" s="3">
-        <f t="shared" si="10"/>
+      <c r="L82" s="2">
+        <f t="shared" si="16"/>
         <v>3.0590404613880608E-2</v>
       </c>
-      <c r="M82" s="8">
-        <f t="shared" si="11"/>
+      <c r="M82" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N82" s="3">
-        <f>(E82-F82)*9.80665*J82*J82/H82</f>
+      <c r="N82" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O82" s="7">
-        <f>G82/(E82-F82)/SQRT(9.80665*J82^3)</f>
+      <c r="O82" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.29914330048827814</v>
       </c>
     </row>
@@ -5232,11 +5218,11 @@
         <v>90</v>
       </c>
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D83">
@@ -5246,7 +5232,7 @@
         <v>884</v>
       </c>
       <c r="F83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1758076184758377</v>
       </c>
       <c r="G83">
@@ -5256,7 +5242,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>5.0799999999999998E-2</v>
@@ -5264,24 +5250,24 @@
       <c r="K83">
         <v>0.20699999999999999</v>
       </c>
-      <c r="L83" s="3">
-        <f t="shared" si="10"/>
+      <c r="L83" s="2">
+        <f t="shared" si="16"/>
         <v>3.001049173020514E-2</v>
       </c>
-      <c r="M83" s="8">
-        <f t="shared" si="11"/>
+      <c r="M83" s="6">
+        <f t="shared" si="17"/>
         <v>76.881515493486148</v>
       </c>
-      <c r="N83" s="3">
-        <f>(E83-F83)*9.80665*J83*J83/H83</f>
+      <c r="N83" s="2">
+        <f t="shared" si="12"/>
         <v>757.35641781279753</v>
       </c>
-      <c r="O83" s="7">
-        <f>G83/(E83-F83)/SQRT(9.80665*J83^3)</f>
+      <c r="O83" s="5">
+        <f t="shared" si="13"/>
         <v>1.3015686635565031E-2</v>
       </c>
       <c r="P83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.29347233744584628</v>
       </c>
     </row>
@@ -5290,11 +5276,11 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D84">
@@ -5304,7 +5290,7 @@
         <v>887</v>
       </c>
       <c r="F84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G84">
@@ -5314,7 +5300,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>5.0799999999999998E-2</v>
@@ -5322,24 +5308,24 @@
       <c r="K84">
         <v>0.21299999999999999</v>
       </c>
-      <c r="L84" s="3">
-        <f t="shared" si="10"/>
+      <c r="L84" s="2">
+        <f t="shared" si="16"/>
         <v>2.0038862882450076E-2</v>
       </c>
-      <c r="M84" s="8">
-        <f t="shared" si="11"/>
+      <c r="M84" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N84" s="3">
-        <f>(E84-F84)*9.80665*J84*J84/H84</f>
+      <c r="N84" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O84" s="7">
-        <f>G84/(E84-F84)/SQRT(9.80665*J84^3)</f>
+      <c r="O84" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.3019812895889078</v>
       </c>
     </row>
@@ -5348,11 +5334,11 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D85">
@@ -5362,7 +5348,7 @@
         <v>887</v>
       </c>
       <c r="F85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G85">
@@ -5372,7 +5358,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>5.0799999999999998E-2</v>
@@ -5380,24 +5366,24 @@
       <c r="K85">
         <v>0.23400000000000001</v>
       </c>
-      <c r="L85" s="3">
-        <f t="shared" si="10"/>
+      <c r="L85" s="2">
+        <f t="shared" si="16"/>
         <v>2.2014525420156417E-2</v>
       </c>
-      <c r="M85" s="8">
-        <f t="shared" si="11"/>
+      <c r="M85" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N85" s="3">
-        <f>(E85-F85)*9.80665*J85*J85/H85</f>
+      <c r="N85" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O85" s="7">
-        <f>G85/(E85-F85)/SQRT(9.80665*J85^3)</f>
+      <c r="O85" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.3317540927878142</v>
       </c>
     </row>
@@ -5406,11 +5392,11 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D86">
@@ -5420,7 +5406,7 @@
         <v>887</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G86">
@@ -5430,7 +5416,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>5.0799999999999998E-2</v>
@@ -5438,24 +5424,24 @@
       <c r="K86">
         <v>0.251</v>
       </c>
-      <c r="L86" s="3">
-        <f t="shared" si="10"/>
+      <c r="L86" s="2">
+        <f t="shared" si="16"/>
         <v>2.3613871284013939E-2</v>
       </c>
-      <c r="M86" s="8">
-        <f t="shared" si="11"/>
+      <c r="M86" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N86" s="3">
-        <f>(E86-F86)*9.80665*J86*J86/H86</f>
+      <c r="N86" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O86" s="7">
-        <f>G86/(E86-F86)/SQRT(9.80665*J86^3)</f>
+      <c r="O86" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.35585588585359557</v>
       </c>
     </row>
@@ -5464,11 +5450,11 @@
         <v>40</v>
       </c>
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D87">
@@ -5478,7 +5464,7 @@
         <v>887</v>
       </c>
       <c r="F87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G87">
@@ -5488,7 +5474,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>5.0799999999999998E-2</v>
@@ -5496,24 +5482,24 @@
       <c r="K87">
         <v>0.26100000000000001</v>
       </c>
-      <c r="L87" s="3">
-        <f t="shared" si="10"/>
+      <c r="L87" s="2">
+        <f t="shared" si="16"/>
         <v>2.4554662968636006E-2</v>
       </c>
-      <c r="M87" s="8">
-        <f t="shared" si="11"/>
+      <c r="M87" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N87" s="3">
-        <f>(E87-F87)*9.80665*J87*J87/H87</f>
+      <c r="N87" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O87" s="7">
-        <f>G87/(E87-F87)/SQRT(9.80665*J87^3)</f>
+      <c r="O87" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.37003341118640815</v>
       </c>
     </row>
@@ -5522,11 +5508,11 @@
         <v>50</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D88">
@@ -5536,7 +5522,7 @@
         <v>887</v>
       </c>
       <c r="F88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G88">
@@ -5546,7 +5532,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>5.0799999999999998E-2</v>
@@ -5554,24 +5540,24 @@
       <c r="K88">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L88" s="3">
-        <f t="shared" si="10"/>
+      <c r="L88" s="2">
+        <f t="shared" si="16"/>
         <v>2.4178346294787177E-2</v>
       </c>
-      <c r="M88" s="8">
-        <f t="shared" si="11"/>
+      <c r="M88" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N88" s="3">
-        <f>(E88-F88)*9.80665*J88*J88/H88</f>
+      <c r="N88" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O88" s="7">
-        <f>G88/(E88-F88)/SQRT(9.80665*J88^3)</f>
+      <c r="O88" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.3643624010532831</v>
       </c>
     </row>
@@ -5580,11 +5566,11 @@
         <v>60</v>
       </c>
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D89">
@@ -5594,7 +5580,7 @@
         <v>887</v>
       </c>
       <c r="F89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G89">
@@ -5604,7 +5590,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>5.0799999999999998E-2</v>
@@ -5612,24 +5598,24 @@
       <c r="K89">
         <v>0.247</v>
       </c>
-      <c r="L89" s="3">
-        <f t="shared" si="10"/>
+      <c r="L89" s="2">
+        <f t="shared" si="16"/>
         <v>2.323755461016511E-2</v>
       </c>
-      <c r="M89" s="8">
-        <f t="shared" si="11"/>
+      <c r="M89" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N89" s="3">
-        <f>(E89-F89)*9.80665*J89*J89/H89</f>
+      <c r="N89" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O89" s="7">
-        <f>G89/(E89-F89)/SQRT(9.80665*J89^3)</f>
+      <c r="O89" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.35018487572047052</v>
       </c>
     </row>
@@ -5638,11 +5624,11 @@
         <v>70</v>
       </c>
       <c r="B90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D90">
@@ -5652,7 +5638,7 @@
         <v>887</v>
       </c>
       <c r="F90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G90">
@@ -5662,7 +5648,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>5.0799999999999998E-2</v>
@@ -5670,24 +5656,24 @@
       <c r="K90">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L90" s="3">
-        <f t="shared" si="10"/>
+      <c r="L90" s="2">
+        <f t="shared" si="16"/>
         <v>2.2202683757080829E-2</v>
       </c>
-      <c r="M90" s="8">
-        <f t="shared" si="11"/>
+      <c r="M90" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N90" s="3">
-        <f>(E90-F90)*9.80665*J90*J90/H90</f>
+      <c r="N90" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O90" s="7">
-        <f>G90/(E90-F90)/SQRT(9.80665*J90^3)</f>
+      <c r="O90" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.3345895978543767</v>
       </c>
     </row>
@@ -5696,11 +5682,11 @@
         <v>80</v>
       </c>
       <c r="B91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D91">
@@ -5710,7 +5696,7 @@
         <v>887</v>
       </c>
       <c r="F91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G91">
@@ -5720,7 +5706,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>5.0799999999999998E-2</v>
@@ -5728,24 +5714,24 @@
       <c r="K91">
         <v>0.215</v>
       </c>
-      <c r="L91" s="3">
-        <f t="shared" si="10"/>
+      <c r="L91" s="2">
+        <f t="shared" si="16"/>
         <v>2.0227021219374485E-2</v>
       </c>
-      <c r="M91" s="8">
-        <f t="shared" si="11"/>
+      <c r="M91" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N91" s="3">
-        <f>(E91-F91)*9.80665*J91*J91/H91</f>
+      <c r="N91" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O91" s="7">
-        <f>G91/(E91-F91)/SQRT(9.80665*J91^3)</f>
+      <c r="O91" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.30481679465547029</v>
       </c>
     </row>
@@ -5754,11 +5740,11 @@
         <v>88</v>
       </c>
       <c r="B92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D92">
@@ -5768,7 +5754,7 @@
         <v>887</v>
       </c>
       <c r="F92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G92">
@@ -5778,7 +5764,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>5.0799999999999998E-2</v>
@@ -5786,24 +5772,24 @@
       <c r="K92">
         <v>0.20200000000000001</v>
       </c>
-      <c r="L92" s="3">
-        <f t="shared" si="10"/>
+      <c r="L92" s="2">
+        <f t="shared" si="16"/>
         <v>1.9003992029365799E-2</v>
       </c>
-      <c r="M92" s="8">
-        <f t="shared" si="11"/>
+      <c r="M92" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N92" s="3">
-        <f>(E92-F92)*9.80665*J92*J92/H92</f>
+      <c r="N92" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O92" s="7">
-        <f>G92/(E92-F92)/SQRT(9.80665*J92^3)</f>
+      <c r="O92" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.28638601172281397</v>
       </c>
     </row>
@@ -5812,11 +5798,11 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D93">
@@ -5826,7 +5812,7 @@
         <v>887</v>
       </c>
       <c r="F93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1945091271284147</v>
       </c>
       <c r="G93">
@@ -5836,7 +5822,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>5.0799999999999998E-2</v>
@@ -5844,24 +5830,24 @@
       <c r="K93">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L93" s="3">
-        <f t="shared" si="10"/>
+      <c r="L93" s="2">
+        <f t="shared" si="16"/>
         <v>1.862767535551697E-2</v>
       </c>
-      <c r="M93" s="8">
-        <f t="shared" si="11"/>
+      <c r="M93" s="6">
+        <f t="shared" si="17"/>
         <v>49.275062693456199</v>
       </c>
-      <c r="N93" s="3">
-        <f>(E93-F93)*9.80665*J93*J93/H93</f>
+      <c r="N93" s="2">
+        <f t="shared" si="12"/>
         <v>759.91401145978011</v>
       </c>
-      <c r="O93" s="7">
-        <f>G93/(E93-F93)/SQRT(9.80665*J93^3)</f>
+      <c r="O93" s="5">
+        <f t="shared" si="13"/>
         <v>2.0307919835846702E-2</v>
       </c>
       <c r="P93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.28071500158968893</v>
       </c>
     </row>
@@ -5870,11 +5856,11 @@
         <v>10</v>
       </c>
       <c r="B94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D94">
@@ -5884,7 +5870,7 @@
         <v>891</v>
       </c>
       <c r="F94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G94">
@@ -5894,7 +5880,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>5.0799999999999998E-2</v>
@@ -5902,24 +5888,24 @@
       <c r="K94">
         <v>0.191</v>
       </c>
-      <c r="L94" s="3">
-        <f t="shared" si="10"/>
+      <c r="L94" s="2">
+        <f t="shared" si="16"/>
         <v>1.2683790769834748E-2</v>
       </c>
-      <c r="M94" s="8">
-        <f t="shared" si="11"/>
+      <c r="M94" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N94" s="3">
-        <f>(E94-F94)*9.80665*J94*J94/H94</f>
+      <c r="N94" s="2">
+        <f t="shared" si="12"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O94" s="7">
-        <f>G94/(E94-F94)/SQRT(9.80665*J94^3)</f>
+      <c r="O94" s="5">
+        <f t="shared" si="13"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.27079393801297419</v>
       </c>
     </row>
@@ -5928,11 +5914,11 @@
         <v>20</v>
       </c>
       <c r="B95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D95">
@@ -5942,7 +5928,7 @@
         <v>891</v>
       </c>
       <c r="F95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G95">
@@ -5952,7 +5938,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>5.0799999999999998E-2</v>
@@ -5960,24 +5946,24 @@
       <c r="K95">
         <v>0.20899999999999999</v>
       </c>
-      <c r="L95" s="3">
-        <f t="shared" si="10"/>
+      <c r="L95" s="2">
+        <f t="shared" si="16"/>
         <v>1.3879121837149016E-2</v>
       </c>
-      <c r="M95" s="8">
-        <f t="shared" si="11"/>
+      <c r="M95" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N95" s="3">
-        <f>(E95-F95)*9.80665*J95*J95/H95</f>
+      <c r="N95" s="2">
+        <f t="shared" si="12"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O95" s="7">
-        <f>G95/(E95-F95)/SQRT(9.80665*J95^3)</f>
+      <c r="O95" s="5">
+        <f t="shared" si="13"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.2963137855744063</v>
       </c>
     </row>
@@ -5986,11 +5972,11 @@
         <v>30</v>
       </c>
       <c r="B96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D96">
@@ -6000,7 +5986,7 @@
         <v>891</v>
       </c>
       <c r="F96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G96">
@@ -6010,7 +5996,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>5.0799999999999998E-2</v>
@@ -6018,24 +6004,24 @@
       <c r="K96">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L96" s="3">
-        <f t="shared" si="10"/>
+      <c r="L96" s="2">
+        <f t="shared" si="16"/>
         <v>1.5008045622945826E-2</v>
       </c>
-      <c r="M96" s="8">
-        <f t="shared" si="11"/>
+      <c r="M96" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N96" s="3">
-        <f>(E96-F96)*9.80665*J96*J96/H96</f>
+      <c r="N96" s="2">
+        <f t="shared" si="12"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O96" s="7">
-        <f>G96/(E96-F96)/SQRT(9.80665*J96^3)</f>
+      <c r="O96" s="5">
+        <f t="shared" si="13"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32041586382686998</v>
       </c>
     </row>
@@ -6044,11 +6030,11 @@
         <v>40</v>
       </c>
       <c r="B97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D97">
@@ -6058,7 +6044,7 @@
         <v>891</v>
       </c>
       <c r="F97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G97">
@@ -6068,7 +6054,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>5.0799999999999998E-2</v>
@@ -6076,24 +6062,24 @@
       <c r="K97">
         <v>0.23400000000000001</v>
       </c>
-      <c r="L97" s="3">
-        <f t="shared" si="10"/>
+      <c r="L97" s="2">
+        <f t="shared" si="16"/>
         <v>1.5539303875085505E-2</v>
       </c>
-      <c r="M97" s="8">
-        <f t="shared" si="11"/>
+      <c r="M97" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N97" s="3">
-        <f>(E97-F97)*9.80665*J97*J97/H97</f>
+      <c r="N97" s="2">
+        <f t="shared" si="12"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O97" s="7">
-        <f>G97/(E97-F97)/SQRT(9.80665*J97^3)</f>
+      <c r="O97" s="5">
+        <f t="shared" si="13"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.33175801829861762</v>
       </c>
     </row>
@@ -6102,11 +6088,11 @@
         <v>50</v>
       </c>
       <c r="B98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D98">
@@ -6116,7 +6102,7 @@
         <v>891</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F134" si="13">101325/(287.058*(D98+273))</f>
+        <f t="shared" ref="F98:F134" si="19">101325/(287.058*(D98+273))</f>
         <v>1.220952774356439</v>
       </c>
       <c r="G98">
@@ -6126,7 +6112,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>5.0799999999999998E-2</v>
@@ -6134,24 +6120,24 @@
       <c r="K98">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L98" s="3">
-        <f t="shared" si="10"/>
+      <c r="L98" s="2">
+        <f t="shared" si="16"/>
         <v>1.5406489312050587E-2</v>
       </c>
-      <c r="M98" s="8">
-        <f t="shared" si="11"/>
+      <c r="M98" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N98" s="3">
-        <f>(E98-F98)*9.80665*J98*J98/H98</f>
+      <c r="N98" s="2">
+        <f t="shared" ref="N98:N129" si="20">(E98-F98)*9.80665*J98*J98/H98</f>
         <v>763.32284238136413</v>
       </c>
-      <c r="O98" s="7">
-        <f>G98/(E98-F98)/SQRT(9.80665*J98^3)</f>
+      <c r="O98" s="5">
+        <f t="shared" ref="O98:O129" si="21">G98/(E98-F98)/SQRT(9.80665*J98^3)</f>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32892247968068072</v>
       </c>
     </row>
@@ -6160,11 +6146,11 @@
         <v>60</v>
       </c>
       <c r="B99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D99">
@@ -6174,7 +6160,7 @@
         <v>891</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G99">
@@ -6184,7 +6170,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>5.0799999999999998E-2</v>
@@ -6192,24 +6178,24 @@
       <c r="K99">
         <v>0.22</v>
       </c>
-      <c r="L99" s="3">
-        <f t="shared" si="10"/>
+      <c r="L99" s="2">
+        <f t="shared" si="16"/>
         <v>1.460960193384107E-2</v>
       </c>
-      <c r="M99" s="8">
-        <f t="shared" si="11"/>
+      <c r="M99" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N99" s="3">
-        <f>(E99-F99)*9.80665*J99*J99/H99</f>
+      <c r="N99" s="2">
+        <f t="shared" si="20"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O99" s="7">
-        <f>G99/(E99-F99)/SQRT(9.80665*J99^3)</f>
+      <c r="O99" s="5">
+        <f t="shared" si="21"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.31190924797305924</v>
       </c>
     </row>
@@ -6218,11 +6204,11 @@
         <v>70</v>
       </c>
       <c r="B100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D100">
@@ -6232,7 +6218,7 @@
         <v>891</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G100">
@@ -6242,7 +6228,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>5.0799999999999998E-2</v>
@@ -6250,24 +6236,24 @@
       <c r="K100">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L100" s="3">
-        <f t="shared" si="10"/>
+      <c r="L100" s="2">
+        <f t="shared" si="16"/>
         <v>1.3547085429561722E-2</v>
       </c>
-      <c r="M100" s="8">
-        <f t="shared" si="11"/>
+      <c r="M100" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N100" s="3">
-        <f>(E100-F100)*9.80665*J100*J100/H100</f>
+      <c r="N100" s="2">
+        <f t="shared" si="20"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O100" s="7">
-        <f>G100/(E100-F100)/SQRT(9.80665*J100^3)</f>
+      <c r="O100" s="5">
+        <f t="shared" si="21"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.28922493902956403</v>
       </c>
     </row>
@@ -6276,11 +6262,11 @@
         <v>80</v>
       </c>
       <c r="B101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D101">
@@ -6290,7 +6276,7 @@
         <v>891</v>
       </c>
       <c r="F101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G101">
@@ -6300,7 +6286,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>5.0799999999999998E-2</v>
@@ -6308,24 +6294,24 @@
       <c r="K101">
         <v>0.183</v>
       </c>
-      <c r="L101" s="3">
-        <f t="shared" si="10"/>
+      <c r="L101" s="2">
+        <f t="shared" si="16"/>
         <v>1.2152532517695073E-2</v>
       </c>
-      <c r="M101" s="8">
-        <f t="shared" si="11"/>
+      <c r="M101" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N101" s="3">
-        <f>(E101-F101)*9.80665*J101*J101/H101</f>
+      <c r="N101" s="2">
+        <f t="shared" si="20"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O101" s="7">
-        <f>G101/(E101-F101)/SQRT(9.80665*J101^3)</f>
+      <c r="O101" s="5">
+        <f t="shared" si="21"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.25945178354122655</v>
       </c>
     </row>
@@ -6334,11 +6320,11 @@
         <v>88</v>
       </c>
       <c r="B102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D102">
@@ -6348,7 +6334,7 @@
         <v>891</v>
       </c>
       <c r="F102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G102">
@@ -6358,7 +6344,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>5.0799999999999998E-2</v>
@@ -6366,24 +6352,24 @@
       <c r="K102">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L102" s="3">
-        <f t="shared" si="10"/>
+      <c r="L102" s="2">
+        <f t="shared" si="16"/>
         <v>1.1355645139485561E-2</v>
       </c>
-      <c r="M102" s="8">
-        <f t="shared" si="11"/>
+      <c r="M102" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N102" s="3">
-        <f>(E102-F102)*9.80665*J102*J102/H102</f>
+      <c r="N102" s="2">
+        <f t="shared" si="20"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O102" s="7">
-        <f>G102/(E102-F102)/SQRT(9.80665*J102^3)</f>
+      <c r="O102" s="5">
+        <f t="shared" si="21"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.24243855183360519</v>
       </c>
     </row>
@@ -6392,11 +6378,11 @@
         <v>90</v>
       </c>
       <c r="B103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D103">
@@ -6406,7 +6392,7 @@
         <v>891</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.220952774356439</v>
       </c>
       <c r="G103">
@@ -6416,7 +6402,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>5.0799999999999998E-2</v>
@@ -6424,24 +6410,24 @@
       <c r="K103">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L103" s="3">
-        <f t="shared" si="10"/>
+      <c r="L103" s="2">
+        <f t="shared" si="16"/>
         <v>1.1222830576450642E-2</v>
       </c>
-      <c r="M103" s="8">
-        <f t="shared" si="11"/>
+      <c r="M103" s="6">
+        <f t="shared" si="17"/>
         <v>34.18133095664281</v>
       </c>
-      <c r="N103" s="3">
-        <f>(E103-F103)*9.80665*J103*J103/H103</f>
+      <c r="N103" s="2">
+        <f t="shared" si="20"/>
         <v>763.32284238136413</v>
       </c>
-      <c r="O103" s="7">
-        <f>G103/(E103-F103)/SQRT(9.80665*J103^3)</f>
+      <c r="O103" s="5">
+        <f t="shared" si="21"/>
         <v>2.9275801604148256E-2</v>
       </c>
       <c r="P103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.23960301321566826</v>
       </c>
     </row>
@@ -6450,11 +6436,11 @@
         <v>10</v>
       </c>
       <c r="B104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D104">
@@ -6464,7 +6450,7 @@
         <v>895</v>
       </c>
       <c r="F104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G104">
@@ -6474,7 +6460,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>5.0799999999999998E-2</v>
@@ -6482,24 +6468,24 @@
       <c r="K104">
         <v>0.127</v>
       </c>
-      <c r="L104" s="3">
-        <f t="shared" si="10"/>
+      <c r="L104" s="2">
+        <f t="shared" si="16"/>
         <v>6.2392102030774431E-3</v>
       </c>
-      <c r="M104" s="8">
-        <f t="shared" si="11"/>
+      <c r="M104" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N104" s="3">
-        <f>(E104-F104)*9.80665*J104*J104/H104</f>
+      <c r="N104" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O104" s="7">
-        <f>G104/(E104-F104)/SQRT(9.80665*J104^3)</f>
+      <c r="O104" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.18005853525055768</v>
       </c>
     </row>
@@ -6508,11 +6494,11 @@
         <v>20</v>
       </c>
       <c r="B105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="C105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="D105">
@@ -6522,7 +6508,7 @@
         <v>895</v>
       </c>
       <c r="F105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G105">
@@ -6532,7 +6518,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>5.0799999999999998E-2</v>
@@ -6540,24 +6526,24 @@
       <c r="K105">
         <v>0.158</v>
       </c>
-      <c r="L105" s="3">
-        <f t="shared" si="10"/>
+      <c r="L105" s="2">
+        <f t="shared" si="16"/>
         <v>7.7621670243010711E-3</v>
       </c>
-      <c r="M105" s="8">
-        <f t="shared" si="11"/>
+      <c r="M105" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N105" s="3">
-        <f>(E105-F105)*9.80665*J105*J105/H105</f>
+      <c r="N105" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O105" s="7">
-        <f>G105/(E105-F105)/SQRT(9.80665*J105^3)</f>
+      <c r="O105" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.22400983125659932</v>
       </c>
     </row>
@@ -6566,11 +6552,11 @@
         <v>30</v>
       </c>
       <c r="B106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D106">
@@ -6580,7 +6566,7 @@
         <v>895</v>
       </c>
       <c r="F106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G106">
@@ -6590,7 +6576,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>5.0799999999999998E-2</v>
@@ -6598,24 +6584,24 @@
       <c r="K106">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L106" s="3">
-        <f t="shared" si="10"/>
+      <c r="L106" s="2">
+        <f t="shared" si="16"/>
         <v>8.4990816152157311E-3</v>
       </c>
-      <c r="M106" s="8">
-        <f t="shared" si="11"/>
+      <c r="M106" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N106" s="3">
-        <f>(E106-F106)*9.80665*J106*J106/H106</f>
+      <c r="N106" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O106" s="7">
-        <f>G106/(E106-F106)/SQRT(9.80665*J106^3)</f>
+      <c r="O106" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.24527658738855493</v>
       </c>
     </row>
@@ -6624,11 +6610,11 @@
         <v>40</v>
       </c>
       <c r="B107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="D107">
@@ -6638,7 +6624,7 @@
         <v>895</v>
       </c>
       <c r="F107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G107">
@@ -6648,7 +6634,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>5.0799999999999998E-2</v>
@@ -6656,24 +6642,24 @@
       <c r="K107">
         <v>0.18</v>
       </c>
-      <c r="L107" s="3">
-        <f t="shared" si="10"/>
+      <c r="L107" s="2">
+        <f t="shared" si="16"/>
         <v>8.8429750909759033E-3</v>
       </c>
-      <c r="M107" s="8">
-        <f t="shared" si="11"/>
+      <c r="M107" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N107" s="3">
-        <f>(E107-F107)*9.80665*J107*J107/H107</f>
+      <c r="N107" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O107" s="7">
-        <f>G107/(E107-F107)/SQRT(9.80665*J107^3)</f>
+      <c r="O107" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.25520107358346755</v>
       </c>
     </row>
@@ -6682,11 +6668,11 @@
         <v>50</v>
       </c>
       <c r="B108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D108">
@@ -6696,7 +6682,7 @@
         <v>895</v>
       </c>
       <c r="F108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G108">
@@ -6706,7 +6692,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>5.0799999999999998E-2</v>
@@ -6714,24 +6700,24 @@
       <c r="K108">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L108" s="3">
-        <f t="shared" si="10"/>
+      <c r="L108" s="2">
+        <f t="shared" si="16"/>
         <v>8.8921027303702146E-3</v>
       </c>
-      <c r="M108" s="8">
-        <f t="shared" si="11"/>
+      <c r="M108" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N108" s="3">
-        <f>(E108-F108)*9.80665*J108*J108/H108</f>
+      <c r="N108" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O108" s="7">
-        <f>G108/(E108-F108)/SQRT(9.80665*J108^3)</f>
+      <c r="O108" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.25661885732559797</v>
       </c>
     </row>
@@ -6740,11 +6726,11 @@
         <v>60</v>
       </c>
       <c r="B109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="C109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="D109">
@@ -6754,7 +6740,7 @@
         <v>895</v>
       </c>
       <c r="F109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G109">
@@ -6764,7 +6750,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>5.0799999999999998E-2</v>
@@ -6772,24 +6758,24 @@
       <c r="K109">
         <v>0.17399999999999999</v>
       </c>
-      <c r="L109" s="3">
-        <f t="shared" si="10"/>
+      <c r="L109" s="2">
+        <f t="shared" si="16"/>
         <v>8.5482092546100407E-3</v>
       </c>
-      <c r="M109" s="8">
-        <f t="shared" si="11"/>
+      <c r="M109" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N109" s="3">
-        <f>(E109-F109)*9.80665*J109*J109/H109</f>
+      <c r="N109" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O109" s="7">
-        <f>G109/(E109-F109)/SQRT(9.80665*J109^3)</f>
+      <c r="O109" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.24669437113068532</v>
       </c>
     </row>
@@ -6798,11 +6784,11 @@
         <v>70</v>
       </c>
       <c r="B110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D110">
@@ -6812,7 +6798,7 @@
         <v>895</v>
       </c>
       <c r="F110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G110">
@@ -6822,7 +6808,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>5.0799999999999998E-2</v>
@@ -6830,24 +6816,24 @@
       <c r="K110">
         <v>0.16300000000000001</v>
       </c>
-      <c r="L110" s="3">
-        <f t="shared" si="10"/>
+      <c r="L110" s="2">
+        <f t="shared" si="16"/>
         <v>8.007805221272625E-3</v>
       </c>
-      <c r="M110" s="8">
-        <f t="shared" si="11"/>
+      <c r="M110" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N110" s="3">
-        <f>(E110-F110)*9.80665*J110*J110/H110</f>
+      <c r="N110" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O110" s="7">
-        <f>G110/(E110-F110)/SQRT(9.80665*J110^3)</f>
+      <c r="O110" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.23109874996725122</v>
       </c>
     </row>
@@ -6856,11 +6842,11 @@
         <v>80</v>
       </c>
       <c r="B111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="C111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="D111">
@@ -6870,7 +6856,7 @@
         <v>895</v>
       </c>
       <c r="F111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G111">
@@ -6880,7 +6866,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>5.0799999999999998E-2</v>
@@ -6888,24 +6874,24 @@
       <c r="K111">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L111" s="3">
-        <f t="shared" si="10"/>
+      <c r="L111" s="2">
+        <f t="shared" si="16"/>
         <v>7.0743800727807223E-3</v>
       </c>
-      <c r="M111" s="8">
-        <f t="shared" si="11"/>
+      <c r="M111" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N111" s="3">
-        <f>(E111-F111)*9.80665*J111*J111/H111</f>
+      <c r="N111" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O111" s="7">
-        <f>G111/(E111-F111)/SQRT(9.80665*J111^3)</f>
+      <c r="O111" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.20416085886677404</v>
       </c>
     </row>
@@ -6914,11 +6900,11 @@
         <v>88</v>
       </c>
       <c r="B112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.489949670250108E-2</v>
       </c>
       <c r="C112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="D112">
@@ -6928,7 +6914,7 @@
         <v>895</v>
       </c>
       <c r="F112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G112">
@@ -6938,7 +6924,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>5.0799999999999998E-2</v>
@@ -6946,24 +6932,24 @@
       <c r="K112">
         <v>0.13</v>
       </c>
-      <c r="L112" s="3">
-        <f t="shared" si="10"/>
+      <c r="L112" s="2">
+        <f t="shared" si="16"/>
         <v>6.3865931212603753E-3</v>
       </c>
-      <c r="M112" s="8">
-        <f t="shared" si="11"/>
+      <c r="M112" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N112" s="3">
-        <f>(E112-F112)*9.80665*J112*J112/H112</f>
+      <c r="N112" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O112" s="7">
-        <f>G112/(E112-F112)/SQRT(9.80665*J112^3)</f>
+      <c r="O112" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.18431188647694882</v>
       </c>
     </row>
@@ -6972,11 +6958,11 @@
         <v>90</v>
       </c>
       <c r="B113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D113">
@@ -6986,7 +6972,7 @@
         <v>895</v>
       </c>
       <c r="F113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2446313366235771</v>
       </c>
       <c r="G113">
@@ -6996,7 +6982,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>5.0799999999999998E-2</v>
@@ -7004,24 +6990,24 @@
       <c r="K113">
         <v>0.126</v>
       </c>
-      <c r="L113" s="3">
-        <f t="shared" si="10"/>
+      <c r="L113" s="2">
+        <f t="shared" si="16"/>
         <v>6.1900825636831336E-3</v>
       </c>
-      <c r="M113" s="8">
-        <f t="shared" si="11"/>
+      <c r="M113" s="6">
+        <f t="shared" si="17"/>
         <v>24.91714094142063</v>
       </c>
-      <c r="N113" s="3">
-        <f>(E113-F113)*9.80665*J113*J113/H113</f>
+      <c r="N113" s="2">
+        <f t="shared" si="20"/>
         <v>766.73404541152775</v>
       </c>
-      <c r="O113" s="7">
-        <f>G113/(E113-F113)/SQRT(9.80665*J113^3)</f>
+      <c r="O113" s="5">
+        <f t="shared" si="21"/>
         <v>4.016094997327041E-2</v>
       </c>
       <c r="P113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.17864075150842731</v>
       </c>
     </row>
@@ -7030,11 +7016,11 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D114">
@@ -7044,7 +7030,7 @@
         <v>886</v>
       </c>
       <c r="F114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1989723066115712</v>
       </c>
       <c r="G114">
@@ -7054,7 +7040,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0.15240000000000001</v>
@@ -7062,24 +7048,24 @@
       <c r="K114">
         <v>0.4</v>
       </c>
-      <c r="L114" s="3">
-        <f t="shared" si="10"/>
+      <c r="L114" s="2">
+        <f t="shared" si="16"/>
         <v>0.12733336552446234</v>
       </c>
-      <c r="M114" s="8">
-        <f t="shared" si="11"/>
+      <c r="M114" s="6">
+        <f t="shared" si="17"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N114" s="3">
-        <f>(E114-F114)*9.80665*J114*J114/H114</f>
+      <c r="N114" s="2">
+        <f t="shared" si="20"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O114" s="7">
-        <f>G114/(E114-F114)/SQRT(9.80665*J114^3)</f>
+      <c r="O114" s="5">
+        <f t="shared" si="21"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.327416997646574</v>
       </c>
     </row>
@@ -7088,11 +7074,11 @@
         <v>30</v>
       </c>
       <c r="B115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D115">
@@ -7102,7 +7088,7 @@
         <v>886</v>
       </c>
       <c r="F115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1989723066115712</v>
       </c>
       <c r="G115">
@@ -7112,7 +7098,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0.15240000000000001</v>
@@ -7120,24 +7106,24 @@
       <c r="K115">
         <v>0.52100000000000002</v>
       </c>
-      <c r="L115" s="3">
-        <f t="shared" si="10"/>
+      <c r="L115" s="2">
+        <f t="shared" si="16"/>
         <v>0.16585170859561224</v>
       </c>
-      <c r="M115" s="8">
-        <f t="shared" si="11"/>
+      <c r="M115" s="6">
+        <f t="shared" si="17"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N115" s="3">
-        <f>(E115-F115)*9.80665*J115*J115/H115</f>
+      <c r="N115" s="2">
+        <f t="shared" si="20"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O115" s="7">
-        <f>G115/(E115-F115)/SQRT(9.80665*J115^3)</f>
+      <c r="O115" s="5">
+        <f t="shared" si="21"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42646063943466261</v>
       </c>
     </row>
@@ -7146,11 +7132,11 @@
         <v>50</v>
       </c>
       <c r="B116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D116">
@@ -7160,7 +7146,7 @@
         <v>886</v>
       </c>
       <c r="F116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1989723066115712</v>
       </c>
       <c r="G116">
@@ -7170,7 +7156,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0.15240000000000001</v>
@@ -7178,24 +7164,24 @@
       <c r="K116">
         <v>0.52200000000000002</v>
       </c>
-      <c r="L116" s="3">
-        <f t="shared" si="10"/>
+      <c r="L116" s="2">
+        <f t="shared" si="16"/>
         <v>0.16617004200942337</v>
       </c>
-      <c r="M116" s="8">
-        <f t="shared" si="11"/>
+      <c r="M116" s="6">
+        <f t="shared" si="17"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N116" s="3">
-        <f>(E116-F116)*9.80665*J116*J116/H116</f>
+      <c r="N116" s="2">
+        <f t="shared" si="20"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O116" s="7">
-        <f>G116/(E116-F116)/SQRT(9.80665*J116^3)</f>
+      <c r="O116" s="5">
+        <f t="shared" si="21"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42727918192877906</v>
       </c>
     </row>
@@ -7204,11 +7190,11 @@
         <v>70</v>
       </c>
       <c r="B117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D117">
@@ -7218,7 +7204,7 @@
         <v>886</v>
       </c>
       <c r="F117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1989723066115712</v>
       </c>
       <c r="G117">
@@ -7228,7 +7214,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0.15240000000000001</v>
@@ -7236,24 +7222,24 @@
       <c r="K117">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L117" s="3">
-        <f t="shared" si="10"/>
+      <c r="L117" s="2">
+        <f t="shared" si="16"/>
         <v>0.16171337421606718</v>
       </c>
-      <c r="M117" s="8">
-        <f t="shared" si="11"/>
+      <c r="M117" s="6">
+        <f t="shared" si="17"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N117" s="3">
-        <f>(E117-F117)*9.80665*J117*J117/H117</f>
+      <c r="N117" s="2">
+        <f t="shared" si="20"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O117" s="7">
-        <f>G117/(E117-F117)/SQRT(9.80665*J117^3)</f>
+      <c r="O117" s="5">
+        <f t="shared" si="21"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.41581958701114896</v>
       </c>
     </row>
@@ -7262,11 +7248,11 @@
         <v>90</v>
       </c>
       <c r="B118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D118">
@@ -7276,7 +7262,7 @@
         <v>886</v>
       </c>
       <c r="F118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1989723066115712</v>
       </c>
       <c r="G118">
@@ -7286,7 +7272,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0.15240000000000001</v>
@@ -7294,24 +7280,24 @@
       <c r="K118">
         <v>0.379</v>
       </c>
-      <c r="L118" s="3">
-        <f t="shared" si="10"/>
+      <c r="L118" s="2">
+        <f t="shared" si="16"/>
         <v>0.12064836383442808</v>
       </c>
-      <c r="M118" s="8">
-        <f t="shared" si="11"/>
+      <c r="M118" s="6">
+        <f t="shared" si="17"/>
         <v>287.38597244843737</v>
       </c>
-      <c r="N118" s="3">
-        <f>(E118-F118)*9.80665*J118*J118/H118</f>
+      <c r="N118" s="2">
+        <f t="shared" si="20"/>
         <v>6831.4707314818897</v>
       </c>
-      <c r="O118" s="7">
-        <f>G118/(E118-F118)/SQRT(9.80665*J118^3)</f>
+      <c r="O118" s="5">
+        <f t="shared" si="21"/>
         <v>3.4819977464949164E-3</v>
       </c>
       <c r="P118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.31022760527012883</v>
       </c>
     </row>
@@ -7320,11 +7306,11 @@
         <v>10</v>
       </c>
       <c r="B119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D119">
@@ -7334,7 +7320,7 @@
         <v>884</v>
       </c>
       <c r="F119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1776513764603027</v>
       </c>
       <c r="G119">
@@ -7344,7 +7330,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0.15240000000000001</v>
@@ -7352,24 +7338,24 @@
       <c r="K119">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L119" s="3">
-        <f t="shared" si="10"/>
+      <c r="L119" s="2">
+        <f t="shared" si="16"/>
         <v>0.2411979562022632</v>
       </c>
-      <c r="M119" s="8">
-        <f t="shared" si="11"/>
+      <c r="M119" s="6">
+        <f t="shared" si="17"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N119" s="3">
-        <f>(E119-F119)*9.80665*J119*J119/H119</f>
+      <c r="N119" s="2">
+        <f t="shared" si="20"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O119" s="7">
-        <f>G119/(E119-F119)/SQRT(9.80665*J119^3)</f>
+      <c r="O119" s="5">
+        <f t="shared" si="21"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.41581520317774034</v>
       </c>
     </row>
@@ -7378,11 +7364,11 @@
         <v>30</v>
       </c>
       <c r="B120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D120">
@@ -7392,7 +7378,7 @@
         <v>884</v>
       </c>
       <c r="F120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1776513764603027</v>
       </c>
       <c r="G120">
@@ -7402,7 +7388,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0.15240000000000001</v>
@@ -7410,24 +7396,24 @@
       <c r="K120">
         <v>0.54</v>
       </c>
-      <c r="L120" s="3">
-        <f t="shared" si="10"/>
+      <c r="L120" s="2">
+        <f t="shared" si="16"/>
         <v>0.25639152824650019</v>
       </c>
-      <c r="M120" s="8">
-        <f t="shared" si="11"/>
+      <c r="M120" s="6">
+        <f t="shared" si="17"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N120" s="3">
-        <f>(E120-F120)*9.80665*J120*J120/H120</f>
+      <c r="N120" s="2">
+        <f t="shared" si="20"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O120" s="7">
-        <f>G120/(E120-F120)/SQRT(9.80665*J120^3)</f>
+      <c r="O120" s="5">
+        <f t="shared" si="21"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.44200828684247989</v>
       </c>
     </row>
@@ -7436,11 +7422,11 @@
         <v>50</v>
       </c>
       <c r="B121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D121">
@@ -7450,7 +7436,7 @@
         <v>884</v>
       </c>
       <c r="F121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1776513764603027</v>
       </c>
       <c r="G121">
@@ -7460,7 +7446,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0.15240000000000001</v>
@@ -7468,24 +7454,24 @@
       <c r="K121">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L121" s="3">
-        <f t="shared" si="10"/>
+      <c r="L121" s="2">
+        <f t="shared" si="16"/>
         <v>0.27680789068094375</v>
       </c>
-      <c r="M121" s="8">
-        <f t="shared" si="11"/>
+      <c r="M121" s="6">
+        <f t="shared" si="17"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N121" s="3">
-        <f>(E121-F121)*9.80665*J121*J121/H121</f>
+      <c r="N121" s="2">
+        <f t="shared" si="20"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O121" s="7">
-        <f>G121/(E121-F121)/SQRT(9.80665*J121^3)</f>
+      <c r="O121" s="5">
+        <f t="shared" si="21"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.47720524301697359</v>
       </c>
     </row>
@@ -7494,11 +7480,11 @@
         <v>70</v>
       </c>
       <c r="B122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D122">
@@ -7508,7 +7494,7 @@
         <v>884</v>
       </c>
       <c r="F122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1776513764603027</v>
       </c>
       <c r="G122">
@@ -7518,7 +7504,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>0.15240000000000001</v>
@@ -7526,24 +7512,24 @@
       <c r="K122">
         <v>0.52</v>
       </c>
-      <c r="L122" s="3">
-        <f t="shared" si="10"/>
+      <c r="L122" s="2">
+        <f t="shared" si="16"/>
         <v>0.24689554571885203</v>
       </c>
-      <c r="M122" s="8">
-        <f t="shared" si="11"/>
+      <c r="M122" s="6">
+        <f t="shared" si="17"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N122" s="3">
-        <f>(E122-F122)*9.80665*J122*J122/H122</f>
+      <c r="N122" s="2">
+        <f t="shared" si="20"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O122" s="7">
-        <f>G122/(E122-F122)/SQRT(9.80665*J122^3)</f>
+      <c r="O122" s="5">
+        <f t="shared" si="21"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42563760955201768</v>
       </c>
     </row>
@@ -7552,11 +7538,11 @@
         <v>90</v>
       </c>
       <c r="B123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D123">
@@ -7566,7 +7552,7 @@
         <v>884</v>
       </c>
       <c r="F123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1776513764603027</v>
       </c>
       <c r="G123">
@@ -7576,7 +7562,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0.15240000000000001</v>
@@ -7584,24 +7570,24 @@
       <c r="K123">
         <v>0.41899999999999998</v>
       </c>
-      <c r="L123" s="3">
-        <f t="shared" si="10"/>
+      <c r="L123" s="2">
+        <f t="shared" si="16"/>
         <v>0.19894083395422887</v>
       </c>
-      <c r="M123" s="8">
-        <f t="shared" si="11"/>
+      <c r="M123" s="6">
+        <f t="shared" si="17"/>
         <v>435.42040794365488</v>
       </c>
-      <c r="N123" s="3">
-        <f>(E123-F123)*9.80665*J123*J123/H123</f>
+      <c r="N123" s="2">
+        <f t="shared" si="20"/>
         <v>6816.1935248223244</v>
       </c>
-      <c r="O123" s="7">
-        <f>G123/(E123-F123)/SQRT(9.80665*J123^3)</f>
+      <c r="O123" s="5">
+        <f t="shared" si="21"/>
         <v>2.2981622827272807E-3</v>
       </c>
       <c r="P123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.34296568923518345</v>
       </c>
     </row>
@@ -7610,11 +7596,11 @@
         <v>10</v>
       </c>
       <c r="B124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D124">
@@ -7624,7 +7610,7 @@
         <v>881</v>
       </c>
       <c r="F124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1557494746944976</v>
       </c>
       <c r="G124">
@@ -7634,7 +7620,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0.15240000000000001</v>
@@ -7642,24 +7628,24 @@
       <c r="K124">
         <v>0.501</v>
       </c>
-      <c r="L124" s="3">
-        <f t="shared" si="10"/>
+      <c r="L124" s="2">
+        <f t="shared" si="16"/>
         <v>0.34470408668618813</v>
       </c>
-      <c r="M124" s="8">
-        <f t="shared" si="11"/>
+      <c r="M124" s="6">
+        <f t="shared" si="17"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N124" s="3">
-        <f>(E124-F124)*9.80665*J124*J124/H124</f>
+      <c r="N124" s="2">
+        <f t="shared" si="20"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O124" s="7">
-        <f>G124/(E124-F124)/SQRT(9.80665*J124^3)</f>
+      <c r="O124" s="5">
+        <f t="shared" si="21"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.41008129336478844</v>
       </c>
     </row>
@@ -7668,11 +7654,11 @@
         <v>30</v>
       </c>
       <c r="B125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D125">
@@ -7682,7 +7668,7 @@
         <v>881</v>
       </c>
       <c r="F125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1557494746944976</v>
       </c>
       <c r="G125">
@@ -7692,7 +7678,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0.15240000000000001</v>
@@ -7700,24 +7686,24 @@
       <c r="K125">
         <v>0.59299999999999997</v>
       </c>
-      <c r="L125" s="3">
-        <f t="shared" si="10"/>
+      <c r="L125" s="2">
+        <f t="shared" si="16"/>
         <v>0.40800304072836241</v>
       </c>
-      <c r="M125" s="8">
-        <f t="shared" si="11"/>
+      <c r="M125" s="6">
+        <f t="shared" si="17"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N125" s="3">
-        <f>(E125-F125)*9.80665*J125*J125/H125</f>
+      <c r="N125" s="2">
+        <f t="shared" si="20"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O125" s="7">
-        <f>G125/(E125-F125)/SQRT(9.80665*J125^3)</f>
+      <c r="O125" s="5">
+        <f t="shared" si="21"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.48538564264534839</v>
       </c>
     </row>
@@ -7726,11 +7712,11 @@
         <v>50</v>
       </c>
       <c r="B126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="C126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="D126">
@@ -7740,7 +7726,7 @@
         <v>881</v>
       </c>
       <c r="F126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1557494746944976</v>
       </c>
       <c r="G126">
@@ -7750,7 +7736,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0.15240000000000001</v>
@@ -7758,24 +7744,24 @@
       <c r="K126">
         <v>0.59699999999999998</v>
       </c>
-      <c r="L126" s="3">
-        <f t="shared" si="10"/>
+      <c r="L126" s="2">
+        <f t="shared" si="16"/>
         <v>0.41075516916497862</v>
       </c>
-      <c r="M126" s="8">
-        <f t="shared" si="11"/>
+      <c r="M126" s="6">
+        <f t="shared" si="17"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N126" s="3">
-        <f>(E126-F126)*9.80665*J126*J126/H126</f>
+      <c r="N126" s="2">
+        <f t="shared" si="20"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O126" s="7">
-        <f>G126/(E126-F126)/SQRT(9.80665*J126^3)</f>
+      <c r="O126" s="5">
+        <f t="shared" si="21"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.48865974478798141</v>
       </c>
     </row>
@@ -7784,11 +7770,11 @@
         <v>70</v>
       </c>
       <c r="B127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D127">
@@ -7798,7 +7784,7 @@
         <v>881</v>
       </c>
       <c r="F127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1557494746944976</v>
       </c>
       <c r="G127">
@@ -7808,7 +7794,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0.15240000000000001</v>
@@ -7816,24 +7802,24 @@
       <c r="K127">
         <v>0.53100000000000003</v>
       </c>
-      <c r="L127" s="3">
-        <f t="shared" si="10"/>
+      <c r="L127" s="2">
+        <f t="shared" si="16"/>
         <v>0.36534504996081019</v>
       </c>
-      <c r="M127" s="8">
-        <f t="shared" si="11"/>
+      <c r="M127" s="6">
+        <f t="shared" si="17"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N127" s="3">
-        <f>(E127-F127)*9.80665*J127*J127/H127</f>
+      <c r="N127" s="2">
+        <f t="shared" si="20"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O127" s="7">
-        <f>G127/(E127-F127)/SQRT(9.80665*J127^3)</f>
+      <c r="O127" s="5">
+        <f t="shared" si="21"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.43463705943453629</v>
       </c>
     </row>
@@ -7842,11 +7828,11 @@
         <v>90</v>
       </c>
       <c r="B128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D128">
@@ -7856,7 +7842,7 @@
         <v>881</v>
       </c>
       <c r="F128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1557494746944976</v>
       </c>
       <c r="G128">
@@ -7866,7 +7852,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0.15240000000000001</v>
@@ -7874,24 +7860,24 @@
       <c r="K128">
         <v>0.46100000000000002</v>
       </c>
-      <c r="L128" s="3">
-        <f t="shared" si="10"/>
+      <c r="L128" s="2">
+        <f t="shared" si="16"/>
         <v>0.31718280232002538</v>
       </c>
-      <c r="M128" s="8">
-        <f t="shared" si="11"/>
+      <c r="M128" s="6">
+        <f t="shared" si="17"/>
         <v>640.75009227197734</v>
       </c>
-      <c r="N128" s="3">
-        <f>(E128-F128)*9.80665*J128*J128/H128</f>
+      <c r="N128" s="2">
+        <f t="shared" si="20"/>
         <v>6793.199891952564</v>
       </c>
-      <c r="O128" s="7">
-        <f>G128/(E128-F128)/SQRT(9.80665*J128^3)</f>
+      <c r="O128" s="5">
+        <f t="shared" si="21"/>
         <v>1.5616955636911839E-3</v>
       </c>
       <c r="P128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.37734027193845804</v>
       </c>
     </row>
@@ -7900,11 +7886,11 @@
         <v>10</v>
       </c>
       <c r="B129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="D129">
@@ -7914,7 +7900,7 @@
         <v>876</v>
       </c>
       <c r="F129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1248484610148071</v>
       </c>
       <c r="G129">
@@ -7924,7 +7910,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0.15240000000000001</v>
@@ -7932,24 +7918,24 @@
       <c r="K129">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L129" s="3">
-        <f t="shared" si="10"/>
+      <c r="L129" s="2">
+        <f t="shared" si="16"/>
         <v>0.58329674324893543</v>
       </c>
-      <c r="M129" s="8">
-        <f t="shared" si="11"/>
+      <c r="M129" s="6">
+        <f t="shared" si="17"/>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N129" s="3">
-        <f>(E129-F129)*9.80665*J129*J129/H129</f>
+      <c r="N129" s="2">
+        <f t="shared" si="20"/>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O129" s="7">
-        <f>G129/(E129-F129)/SQRT(9.80665*J129^3)</f>
+      <c r="O129" s="5">
+        <f t="shared" si="21"/>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42890141388425079</v>
       </c>
     </row>
@@ -7958,11 +7944,11 @@
         <v>30</v>
       </c>
       <c r="B130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D130">
@@ -7972,7 +7958,7 @@
         <v>876</v>
       </c>
       <c r="F130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1248484610148071</v>
       </c>
       <c r="G130">
@@ -7982,7 +7968,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0.15240000000000001</v>
@@ -7990,24 +7976,24 @@
       <c r="K130">
         <v>0.61899999999999999</v>
       </c>
-      <c r="L130" s="3">
-        <f t="shared" si="10"/>
+      <c r="L130" s="2">
+        <f t="shared" si="16"/>
         <v>0.68904710700589888</v>
       </c>
-      <c r="M130" s="8">
-        <f t="shared" si="11"/>
+      <c r="M130" s="6">
+        <f t="shared" si="17"/>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N130" s="3">
-        <f>(E130-F130)*9.80665*J130*J130/H130</f>
+      <c r="N130" s="2">
+        <f t="shared" ref="N130:N149" si="22">(E130-F130)*9.80665*J130*J130/H130</f>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O130" s="7">
-        <f>G130/(E130-F130)/SQRT(9.80665*J130^3)</f>
+      <c r="O130" s="5">
+        <f t="shared" ref="O130:O149" si="23">G130/(E130-F130)/SQRT(9.80665*J130^3)</f>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.50666025800448711</v>
       </c>
     </row>
@@ -8016,11 +8002,11 @@
         <v>50</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B149" si="14">+COS(RADIANS(A131))</f>
+        <f t="shared" ref="B131:B149" si="24">+COS(RADIANS(A131))</f>
         <v>0.64278760968653936</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C149" si="15">+SIN(RADIANS(A131))</f>
+        <f t="shared" ref="C131:C149" si="25">+SIN(RADIANS(A131))</f>
         <v>0.76604444311897801</v>
       </c>
       <c r="D131">
@@ -8030,7 +8016,7 @@
         <v>876</v>
       </c>
       <c r="F131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1248484610148071</v>
       </c>
       <c r="G131">
@@ -8040,7 +8026,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0.15240000000000001</v>
@@ -8048,24 +8034,24 @@
       <c r="K131">
         <v>0.63200000000000001</v>
       </c>
-      <c r="L131" s="3">
-        <f t="shared" ref="L131:L149" si="16">+F131*K131*J131/G131</f>
+      <c r="L131" s="2">
+        <f t="shared" ref="L131:L149" si="26">+F131*K131*J131/G131</f>
         <v>0.70351820941474652</v>
       </c>
-      <c r="M131" s="8">
-        <f t="shared" ref="M131:M149" si="17">+(9.80665*J131^3*(E131-F131)*E131)^0.5/G131</f>
+      <c r="M131" s="6">
+        <f t="shared" ref="M131:M149" si="27">+(9.80665*J131^3*(E131-F131)*E131)^0.5/G131</f>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N131" s="3">
-        <f>(E131-F131)*9.80665*J131*J131/H131</f>
+      <c r="N131" s="2">
+        <f t="shared" si="22"/>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O131" s="7">
-        <f>G131/(E131-F131)/SQRT(9.80665*J131^3)</f>
+      <c r="O131" s="5">
+        <f t="shared" si="23"/>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131:P149" si="18">K131/SQRT(9.80665*J131*(1-F131/E131))</f>
+        <f t="shared" ref="P131:P149" si="28">K131/SQRT(9.80665*J131*(1-F131/E131))</f>
         <v>0.51730094193672993</v>
       </c>
     </row>
@@ -8074,11 +8060,11 @@
         <v>70</v>
       </c>
       <c r="B132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="C132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="D132">
@@ -8088,7 +8074,7 @@
         <v>876</v>
       </c>
       <c r="F132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1248484610148071</v>
       </c>
       <c r="G132">
@@ -8098,7 +8084,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0.15240000000000001</v>
@@ -8106,24 +8092,24 @@
       <c r="K132">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L132" s="3">
-        <f t="shared" si="16"/>
+      <c r="L132" s="2">
+        <f t="shared" si="26"/>
         <v>0.63561534426553845</v>
       </c>
-      <c r="M132" s="8">
-        <f t="shared" si="17"/>
+      <c r="M132" s="6">
+        <f t="shared" si="27"/>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N132" s="3">
-        <f>(E132-F132)*9.80665*J132*J132/H132</f>
+      <c r="N132" s="2">
+        <f t="shared" si="22"/>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O132" s="7">
-        <f>G132/(E132-F132)/SQRT(9.80665*J132^3)</f>
+      <c r="O132" s="5">
+        <f t="shared" si="23"/>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.46737157887005187</v>
       </c>
     </row>
@@ -8132,11 +8118,11 @@
         <v>90</v>
       </c>
       <c r="B133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="D133">
@@ -8146,7 +8132,7 @@
         <v>876</v>
       </c>
       <c r="F133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1248484610148071</v>
       </c>
       <c r="G133">
@@ -8156,7 +8142,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="I133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0.15240000000000001</v>
@@ -8164,24 +8150,24 @@
       <c r="K133">
         <v>0.47499999999999998</v>
       </c>
-      <c r="L133" s="3">
-        <f t="shared" si="16"/>
+      <c r="L133" s="2">
+        <f t="shared" si="26"/>
         <v>0.52875181878481747</v>
       </c>
-      <c r="M133" s="8">
-        <f t="shared" si="17"/>
+      <c r="M133" s="6">
+        <f t="shared" si="27"/>
         <v>1059.1126649983742</v>
       </c>
-      <c r="N133" s="3">
-        <f>(E133-F133)*9.80665*J133*J133/H133</f>
+      <c r="N133" s="2">
+        <f t="shared" si="22"/>
         <v>6754.8339167509084</v>
       </c>
-      <c r="O133" s="7">
-        <f>G133/(E133-F133)/SQRT(9.80665*J133^3)</f>
+      <c r="O133" s="5">
+        <f t="shared" si="23"/>
         <v>9.447934000237822E-4</v>
       </c>
       <c r="P133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.38879422060118152</v>
       </c>
     </row>
@@ -8190,11 +8176,11 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D134">
@@ -8204,7 +8190,7 @@
         <v>870</v>
       </c>
       <c r="F134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G134">
@@ -8216,27 +8202,27 @@
       <c r="J134">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="2">
         <v>0.36656</v>
       </c>
-      <c r="L134" s="3">
-        <f t="shared" si="16"/>
+      <c r="L134" s="2">
+        <f t="shared" si="26"/>
         <v>0.27221510299793827</v>
       </c>
-      <c r="M134" s="8">
-        <f t="shared" si="17"/>
+      <c r="M134" s="6">
+        <f t="shared" si="27"/>
         <v>530.04486397138203</v>
       </c>
-      <c r="N134" s="3">
-        <f>(E134-F134)*9.80665*J134*J134/H134</f>
+      <c r="N134" s="2">
+        <f t="shared" si="22"/>
         <v>3092.7656644153262</v>
       </c>
-      <c r="O134" s="7">
-        <f>G134/(E134-F134)/SQRT(9.80665*J134^3)</f>
+      <c r="O134" s="5">
+        <f t="shared" si="23"/>
         <v>1.8879354370579585E-3</v>
       </c>
       <c r="P134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.37227760027999035</v>
       </c>
     </row>
@@ -8245,11 +8231,11 @@
         <v>2.5</v>
       </c>
       <c r="B135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.9990482215818578</v>
       </c>
       <c r="C135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4.3619387365336E-2</v>
       </c>
       <c r="D135">
@@ -8259,7 +8245,7 @@
         <v>870</v>
       </c>
       <c r="F135">
-        <f t="shared" ref="F135:F149" si="19">101325/(287.058*(D135+273))</f>
+        <f t="shared" ref="F135:F149" si="29">101325/(287.058*(D135+273))</f>
         <v>1.2001953317458227</v>
       </c>
       <c r="G135">
@@ -8271,27 +8257,27 @@
       <c r="J135">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="2">
         <v>0.42099999999999999</v>
       </c>
-      <c r="L135" s="3">
-        <f t="shared" si="16"/>
+      <c r="L135" s="2">
+        <f t="shared" si="26"/>
         <v>0.31264338269896341</v>
       </c>
-      <c r="M135" s="8">
-        <f t="shared" si="17"/>
+      <c r="M135" s="6">
+        <f t="shared" si="27"/>
         <v>530.04486397138203</v>
       </c>
-      <c r="N135" s="3">
-        <f>(E135-F135)*9.80665*J135*J135/H135</f>
+      <c r="N135" s="2">
+        <f t="shared" si="22"/>
         <v>3092.7656644153262</v>
       </c>
-      <c r="O135" s="7">
-        <f>G135/(E135-F135)/SQRT(9.80665*J135^3)</f>
+      <c r="O135" s="5">
+        <f t="shared" si="23"/>
         <v>1.8879354370579585E-3</v>
       </c>
       <c r="P135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.42756675501384744</v>
       </c>
     </row>
@@ -8300,11 +8286,11 @@
         <v>5</v>
       </c>
       <c r="B136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D136">
@@ -8314,7 +8300,7 @@
         <v>870</v>
       </c>
       <c r="F136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G136">
@@ -8326,27 +8312,27 @@
       <c r="J136">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="2">
         <v>0.43030000000000002</v>
       </c>
-      <c r="L136" s="3">
-        <f t="shared" si="16"/>
+      <c r="L136" s="2">
+        <f t="shared" si="26"/>
         <v>0.31954975671107833</v>
       </c>
-      <c r="M136" s="8">
-        <f t="shared" si="17"/>
+      <c r="M136" s="6">
+        <f t="shared" si="27"/>
         <v>530.04486397138203</v>
       </c>
-      <c r="N136" s="3">
-        <f>(E136-F136)*9.80665*J136*J136/H136</f>
+      <c r="N136" s="2">
+        <f t="shared" si="22"/>
         <v>3092.7656644153262</v>
       </c>
-      <c r="O136" s="7">
-        <f>G136/(E136-F136)/SQRT(9.80665*J136^3)</f>
+      <c r="O136" s="5">
+        <f t="shared" si="23"/>
         <v>1.8879354370579585E-3</v>
       </c>
       <c r="P136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.43701181634788261</v>
       </c>
     </row>
@@ -8355,11 +8341,11 @@
         <v>7.5</v>
       </c>
       <c r="B137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99144486137381038</v>
       </c>
       <c r="C137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.13052619222005157</v>
       </c>
       <c r="D137">
@@ -8369,7 +8355,7 @@
         <v>870</v>
       </c>
       <c r="F137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G137">
@@ -8381,27 +8367,27 @@
       <c r="J137">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="2">
         <v>0.44541999999999998</v>
       </c>
-      <c r="L137" s="3">
-        <f t="shared" si="16"/>
+      <c r="L137" s="2">
+        <f t="shared" si="26"/>
         <v>0.33077818413722632</v>
       </c>
-      <c r="M137" s="8">
-        <f t="shared" si="17"/>
+      <c r="M137" s="6">
+        <f t="shared" si="27"/>
         <v>530.04486397138203</v>
       </c>
-      <c r="N137" s="3">
-        <f>(E137-F137)*9.80665*J137*J137/H137</f>
+      <c r="N137" s="2">
+        <f t="shared" si="22"/>
         <v>3092.7656644153262</v>
       </c>
-      <c r="O137" s="7">
-        <f>G137/(E137-F137)/SQRT(9.80665*J137^3)</f>
+      <c r="O137" s="5">
+        <f t="shared" si="23"/>
         <v>1.8879354370579585E-3</v>
       </c>
       <c r="P137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.45236765800063644</v>
       </c>
     </row>
@@ -8410,11 +8396,11 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D138">
@@ -8424,7 +8410,7 @@
         <v>870</v>
       </c>
       <c r="F138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G138">
@@ -8436,27 +8422,27 @@
       <c r="J138">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="2">
         <v>0.28370000000000001</v>
       </c>
-      <c r="L138" s="3">
-        <f t="shared" si="16"/>
+      <c r="L138" s="2">
+        <f t="shared" si="26"/>
         <v>0.1213014918133033</v>
       </c>
-      <c r="M138" s="8">
-        <f t="shared" si="17"/>
+      <c r="M138" s="6">
+        <f t="shared" si="27"/>
         <v>231.5645755099597</v>
       </c>
-      <c r="N138" s="3">
-        <f>(E138-F138)*9.80665*J138*J138/H138</f>
+      <c r="N138" s="2">
+        <f t="shared" si="22"/>
         <v>1025.2418777354756</v>
       </c>
-      <c r="O138" s="7">
-        <f>G138/(E138-F138)/SQRT(9.80665*J138^3)</f>
+      <c r="O138" s="5">
+        <f t="shared" si="23"/>
         <v>4.3214316339983405E-3</v>
       </c>
       <c r="P138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.37971813502285079</v>
       </c>
     </row>
@@ -8465,11 +8451,11 @@
         <v>2.5</v>
       </c>
       <c r="B139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.9990482215818578</v>
       </c>
       <c r="C139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4.3619387365336E-2</v>
       </c>
       <c r="D139">
@@ -8479,7 +8465,7 @@
         <v>870</v>
       </c>
       <c r="F139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G139">
@@ -8491,27 +8477,27 @@
       <c r="J139">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="2">
         <v>0.29741000000000001</v>
       </c>
-      <c r="L139" s="3">
-        <f t="shared" si="16"/>
+      <c r="L139" s="2">
+        <f t="shared" si="26"/>
         <v>0.12716347085017457</v>
       </c>
-      <c r="M139" s="8">
-        <f t="shared" si="17"/>
+      <c r="M139" s="6">
+        <f t="shared" si="27"/>
         <v>231.5645755099597</v>
       </c>
-      <c r="N139" s="3">
-        <f>(E139-F139)*9.80665*J139*J139/H139</f>
+      <c r="N139" s="2">
+        <f t="shared" si="22"/>
         <v>1025.2418777354756</v>
       </c>
-      <c r="O139" s="7">
-        <f>G139/(E139-F139)/SQRT(9.80665*J139^3)</f>
+      <c r="O139" s="5">
+        <f t="shared" si="23"/>
         <v>4.3214316339983405E-3</v>
       </c>
       <c r="P139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.39806827824161456</v>
       </c>
     </row>
@@ -8520,11 +8506,11 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D140">
@@ -8534,7 +8520,7 @@
         <v>870</v>
       </c>
       <c r="F140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G140">
@@ -8546,27 +8532,27 @@
       <c r="J140">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="2">
         <v>0.30868000000000001</v>
       </c>
-      <c r="L140" s="3">
-        <f t="shared" si="16"/>
+      <c r="L140" s="2">
+        <f t="shared" si="26"/>
         <v>0.13198218009492585</v>
       </c>
-      <c r="M140" s="8">
-        <f t="shared" si="17"/>
+      <c r="M140" s="6">
+        <f t="shared" si="27"/>
         <v>231.5645755099597</v>
       </c>
-      <c r="N140" s="3">
-        <f>(E140-F140)*9.80665*J140*J140/H140</f>
+      <c r="N140" s="2">
+        <f t="shared" si="22"/>
         <v>1025.2418777354756</v>
       </c>
-      <c r="O140" s="7">
-        <f>G140/(E140-F140)/SQRT(9.80665*J140^3)</f>
+      <c r="O140" s="5">
+        <f t="shared" si="23"/>
         <v>4.3214316339983405E-3</v>
       </c>
       <c r="P140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.41315260457826425</v>
       </c>
     </row>
@@ -8575,11 +8561,11 @@
         <v>7.5</v>
       </c>
       <c r="B141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99144486137381038</v>
       </c>
       <c r="C141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.13052619222005157</v>
       </c>
       <c r="D141">
@@ -8589,7 +8575,7 @@
         <v>870</v>
       </c>
       <c r="F141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G141">
@@ -8601,27 +8587,27 @@
       <c r="J141">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="2">
         <v>0.31847999999999999</v>
       </c>
-      <c r="L141" s="3">
-        <f t="shared" si="16"/>
+      <c r="L141" s="2">
+        <f t="shared" si="26"/>
         <v>0.13617236204688343</v>
       </c>
-      <c r="M141" s="8">
-        <f t="shared" si="17"/>
+      <c r="M141" s="6">
+        <f t="shared" si="27"/>
         <v>231.5645755099597</v>
       </c>
-      <c r="N141" s="3">
-        <f>(E141-F141)*9.80665*J141*J141/H141</f>
+      <c r="N141" s="2">
+        <f t="shared" si="22"/>
         <v>1025.2418777354756</v>
       </c>
-      <c r="O141" s="7">
-        <f>G141/(E141-F141)/SQRT(9.80665*J141^3)</f>
+      <c r="O141" s="5">
+        <f t="shared" si="23"/>
         <v>4.3214316339983405E-3</v>
       </c>
       <c r="P141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.42626941008839442</v>
       </c>
     </row>
@@ -8630,11 +8616,11 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D142">
@@ -8644,7 +8630,7 @@
         <v>960</v>
       </c>
       <c r="F142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G142">
@@ -8656,27 +8642,27 @@
       <c r="J142">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="2">
         <v>0.1976</v>
       </c>
-      <c r="L142" s="3">
-        <f t="shared" si="16"/>
+      <c r="L142" s="2">
+        <f t="shared" si="26"/>
         <v>2.059535189275832E-2</v>
       </c>
-      <c r="M142" s="8">
-        <f t="shared" si="17"/>
+      <c r="M142" s="6">
+        <f t="shared" si="27"/>
         <v>82.093328250574871</v>
       </c>
-      <c r="N142" s="3">
-        <f>(E142-F142)*9.80665*J142*J142/H142</f>
+      <c r="N142" s="2">
+        <f t="shared" si="22"/>
         <v>2490.6762388571306</v>
       </c>
-      <c r="O142" s="7">
-        <f>G142/(E142-F142)/SQRT(9.80665*J142^3)</f>
+      <c r="O142" s="5">
+        <f t="shared" si="23"/>
         <v>1.2188879532580833E-2</v>
       </c>
       <c r="P142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.20066916948131705</v>
       </c>
     </row>
@@ -8685,11 +8671,11 @@
         <v>2.5</v>
       </c>
       <c r="B143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.9990482215818578</v>
       </c>
       <c r="C143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4.3619387365336E-2</v>
       </c>
       <c r="D143">
@@ -8699,7 +8685,7 @@
         <v>960</v>
       </c>
       <c r="F143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G143">
@@ -8711,27 +8697,27 @@
       <c r="J143">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="2">
         <v>0.27904000000000001</v>
       </c>
-      <c r="L143" s="3">
-        <f t="shared" si="16"/>
+      <c r="L143" s="2">
+        <f t="shared" si="26"/>
         <v>2.9083638624267619E-2</v>
       </c>
-      <c r="M143" s="8">
-        <f t="shared" si="17"/>
+      <c r="M143" s="6">
+        <f t="shared" si="27"/>
         <v>82.093328250574871</v>
       </c>
-      <c r="N143" s="3">
-        <f>(E143-F143)*9.80665*J143*J143/H143</f>
+      <c r="N143" s="2">
+        <f t="shared" si="22"/>
         <v>2490.6762388571306</v>
       </c>
-      <c r="O143" s="7">
-        <f>G143/(E143-F143)/SQRT(9.80665*J143^3)</f>
+      <c r="O143" s="5">
+        <f t="shared" si="23"/>
         <v>1.2188879532580833E-2</v>
       </c>
       <c r="P143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.28337411463596512</v>
       </c>
     </row>
@@ -8740,11 +8726,11 @@
         <v>5</v>
       </c>
       <c r="B144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D144">
@@ -8754,7 +8740,7 @@
         <v>960</v>
       </c>
       <c r="F144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G144">
@@ -8766,27 +8752,27 @@
       <c r="J144">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="2">
         <v>0.316</v>
       </c>
-      <c r="L144" s="3">
-        <f t="shared" si="16"/>
+      <c r="L144" s="2">
+        <f t="shared" si="26"/>
         <v>3.2935886630119579E-2</v>
       </c>
-      <c r="M144" s="8">
-        <f t="shared" si="17"/>
+      <c r="M144" s="6">
+        <f t="shared" si="27"/>
         <v>82.093328250574871</v>
       </c>
-      <c r="N144" s="3">
-        <f>(E144-F144)*9.80665*J144*J144/H144</f>
+      <c r="N144" s="2">
+        <f t="shared" si="22"/>
         <v>2490.6762388571306</v>
       </c>
-      <c r="O144" s="7">
-        <f>G144/(E144-F144)/SQRT(9.80665*J144^3)</f>
+      <c r="O144" s="5">
+        <f t="shared" si="23"/>
         <v>1.2188879532580833E-2</v>
       </c>
       <c r="P144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.32090818601263255</v>
       </c>
     </row>
@@ -8795,11 +8781,11 @@
         <v>7.5</v>
       </c>
       <c r="B145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99144486137381038</v>
       </c>
       <c r="C145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.13052619222005157</v>
       </c>
       <c r="D145">
@@ -8809,7 +8795,7 @@
         <v>960</v>
       </c>
       <c r="F145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G145">
@@ -8821,27 +8807,27 @@
       <c r="J145">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="2">
         <v>0.33579999999999999</v>
       </c>
-      <c r="L145" s="3">
-        <f t="shared" si="16"/>
+      <c r="L145" s="2">
+        <f t="shared" si="26"/>
         <v>3.4999590918968849E-2</v>
       </c>
-      <c r="M145" s="8">
-        <f t="shared" si="17"/>
+      <c r="M145" s="6">
+        <f t="shared" si="27"/>
         <v>82.093328250574871</v>
       </c>
-      <c r="N145" s="3">
-        <f>(E145-F145)*9.80665*J145*J145/H145</f>
+      <c r="N145" s="2">
+        <f t="shared" si="22"/>
         <v>2490.6762388571306</v>
       </c>
-      <c r="O145" s="7">
-        <f>G145/(E145-F145)/SQRT(9.80665*J145^3)</f>
+      <c r="O145" s="5">
+        <f t="shared" si="23"/>
         <v>1.2188879532580833E-2</v>
       </c>
       <c r="P145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.34101572425013293</v>
       </c>
     </row>
@@ -8850,11 +8836,11 @@
         <v>1</v>
       </c>
       <c r="B146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="D146">
@@ -8864,7 +8850,7 @@
         <v>960</v>
       </c>
       <c r="F146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G146">
@@ -8876,27 +8862,27 @@
       <c r="J146">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L146" s="3">
-        <f t="shared" si="16"/>
+      <c r="L146" s="2">
+        <f t="shared" si="26"/>
         <v>5.5208985260307855E-3</v>
       </c>
-      <c r="M146" s="8">
-        <f t="shared" si="17"/>
+      <c r="M146" s="6">
+        <f t="shared" si="27"/>
         <v>35.864712594537146</v>
       </c>
-      <c r="N146" s="3">
-        <f>(E146-F146)*9.80665*J146*J146/H146</f>
+      <c r="N146" s="2">
+        <f t="shared" si="22"/>
         <v>825.65116825291466</v>
       </c>
-      <c r="O146" s="7">
-        <f>G146/(E146-F146)/SQRT(9.80665*J146^3)</f>
+      <c r="O146" s="5">
+        <f t="shared" si="23"/>
         <v>2.790000577412366E-2</v>
       </c>
       <c r="P146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.12312938486150418</v>
       </c>
     </row>
@@ -8905,11 +8891,11 @@
         <v>2.5</v>
       </c>
       <c r="B147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.9990482215818578</v>
       </c>
       <c r="C147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4.3619387365336E-2</v>
       </c>
       <c r="D147">
@@ -8919,7 +8905,7 @@
         <v>960</v>
       </c>
       <c r="F147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G147">
@@ -8931,27 +8917,27 @@
       <c r="J147">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="2">
         <v>0.1542</v>
       </c>
-      <c r="L147" s="3">
-        <f t="shared" si="16"/>
+      <c r="L147" s="2">
+        <f t="shared" si="26"/>
         <v>9.2535060077602958E-3</v>
       </c>
-      <c r="M147" s="8">
-        <f t="shared" si="17"/>
+      <c r="M147" s="6">
+        <f t="shared" si="27"/>
         <v>35.864712594537146</v>
       </c>
-      <c r="N147" s="3">
-        <f>(E147-F147)*9.80665*J147*J147/H147</f>
+      <c r="N147" s="2">
+        <f t="shared" si="22"/>
         <v>825.65116825291466</v>
       </c>
-      <c r="O147" s="7">
-        <f>G147/(E147-F147)/SQRT(9.80665*J147^3)</f>
+      <c r="O147" s="5">
+        <f t="shared" si="23"/>
         <v>2.790000577412366E-2</v>
       </c>
       <c r="P147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.20637555593091245</v>
       </c>
     </row>
@@ -8960,11 +8946,11 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="D148">
@@ -8974,7 +8960,7 @@
         <v>960</v>
       </c>
       <c r="F148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G148">
@@ -8986,27 +8972,27 @@
       <c r="J148">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="2">
         <v>0.2044</v>
       </c>
-      <c r="L148" s="3">
-        <f t="shared" si="16"/>
+      <c r="L148" s="2">
+        <f t="shared" si="26"/>
         <v>1.2265996290442309E-2</v>
       </c>
-      <c r="M148" s="8">
-        <f t="shared" si="17"/>
+      <c r="M148" s="6">
+        <f t="shared" si="27"/>
         <v>35.864712594537146</v>
       </c>
-      <c r="N148" s="3">
-        <f>(E148-F148)*9.80665*J148*J148/H148</f>
+      <c r="N148" s="2">
+        <f t="shared" si="22"/>
         <v>825.65116825291466</v>
       </c>
-      <c r="O148" s="7">
-        <f>G148/(E148-F148)/SQRT(9.80665*J148^3)</f>
+      <c r="O148" s="5">
+        <f t="shared" si="23"/>
         <v>2.790000577412366E-2</v>
       </c>
       <c r="P148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.27356137245316797</v>
       </c>
     </row>
@@ -9015,11 +9001,11 @@
         <v>7.5</v>
       </c>
       <c r="B149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.99144486137381038</v>
       </c>
       <c r="C149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.13052619222005157</v>
       </c>
       <c r="D149">
@@ -9029,7 +9015,7 @@
         <v>960</v>
       </c>
       <c r="F149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.2001953317458227</v>
       </c>
       <c r="G149">
@@ -9041,49 +9027,49 @@
       <c r="J149">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="2">
         <v>0.2122</v>
       </c>
-      <c r="L149" s="3">
-        <f t="shared" si="16"/>
+      <c r="L149" s="2">
+        <f t="shared" si="26"/>
         <v>1.2734072469823181E-2</v>
       </c>
-      <c r="M149" s="8">
-        <f t="shared" si="17"/>
+      <c r="M149" s="6">
+        <f t="shared" si="27"/>
         <v>35.864712594537146</v>
       </c>
-      <c r="N149" s="3">
-        <f>(E149-F149)*9.80665*J149*J149/H149</f>
+      <c r="N149" s="2">
+        <f t="shared" si="22"/>
         <v>825.65116825291466</v>
       </c>
-      <c r="O149" s="7">
-        <f>G149/(E149-F149)/SQRT(9.80665*J149^3)</f>
+      <c r="O149" s="5">
+        <f t="shared" si="23"/>
         <v>2.790000577412366E-2</v>
       </c>
       <c r="P149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.28400060290881723</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
